--- a/Output/semana.xlsx
+++ b/Output/semana.xlsx
@@ -464,12 +464,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nevado volcano of the Ruiz Mild increase in seismic activity of the volcano</t>
+          <t>Nevado del Ruiz volcano slight increase in seismic activity of the volcano</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service reported in its newsletter on May 9 that the seismic activity of the Nevado del Ruiz volcano has presented a slight increase in the number of earthquakes and in the seismic energy released..You may interest Nevado del Ruiz thermal anomalies reach greater values which also indicated that it has been recorded by means of the cameras that monitor the area ash pulsatile emissions that have a maximum height of the gas column and ash of 1000 meters measured fromThe top of the volcano and was related to an ash broadcast and claim that it was recorded on May 8 at 0727 pm..The activity of the Nevado del Ruiz volcano remains very unstable and it is necessaryDecrease others indicates the geological service bulletin..This is why the activity of the Nevado del Ruiz volcano continues at the level of orange activity is to say that there is a probability that in days or weeks to make an eruption greater than those that it has done in the last 10 years in the same way it is possible that it continueOn orange alert for several weeks..You may be interested in Nevado del Ruiz remains unstable, earthquakes are reported within the geological service volcan.Normal volcano activity..The entity invited Colombians to remain calm and follow all the instructions of the National Unit for Disaster Risk Management and Local Authorities and also suggested that citizens are attentive to the information provided by the Colombian Geological Service about evolutionFrom the state of the Volcanade of Ruiz Caldas, he asks to reduce high -risk area to recover works Volcán Nevado del Ruiz continues to increase seismic activity within the snow -welcomp of the Ruiz Fall ash in Manizales Villamaría and Neirate likes to be informed</t>
+          <t>The Colombian Geological Service reported in its bulletin on May 9 that the seismic activity of the Nevado del Ruiz volcano has presented a slight increase in the number of earthquakes and in the seismic energy released. . You may be interested in Nevado del Ruiz Volcano Thermal anomalies reach higher values ​​what happens He also indicated that pulsatile ash emissions have been recorded through the cameras that monitor the area that have a maximum height of the gas and ash column of 1000 meters measured from the top of the volcano and was related to an ash emission and they affirm that it was registered on May 8 at 0727 pm. . The activity of the Nevado del Ruiz volcano continues to be very unstable and it is necessary to continue with the prevention measures. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or oscillate in the sense of increasing for a few days and decrease others indicates the Geological Survey bulletin. . That is why the activity of the Nevado del Ruiz volcano continues at an orange activity level, that is to say that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. In the same way, it is possible that it will continue. on orange alert for several weeks. . It may interest you Nevado del Ruiz is still unstable, earthquakes are reported inside the volcano The Geological Service clarified that the volcano has not reached its normal levels and preventive measures should continue to be taken, so they recommend not getting used to these changes and thinking that it is a normal activity of the volcano. . The entity invited Colombians to remain calm and follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. It also suggested that citizens be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcanoNevado del Ruiz Caldas asks to reduce the high-risk area to recover jobsNevado del Ruiz Volcano continues to increase seismic activity inside the volcanoNevado del Ruiz Volcano ash fall in Manizales Villamaría and NeiraYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -482,12 +482,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Called key on Nevado del Ruiz volcano why you don't have to get used to</t>
+          <t>Key call on Nevado del Ruiz volcano why you don't have to get used to it</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The eyes of the authorities and the inhabitants have been placed on the Nevado del Ruiz volcano which completes more than a month at the level of orange activity since then there is a possibility that it will make an eruption in a matter of days or weeks, reading snowy volcano of the snowRuiz Thermal anomalies reach greater values which occur in the passage of the reports of the Colombian Geological Service SGC account for the seismicity registration output of ash and sulfur and thermal anomalies detected by satellite platforms as several of these aspects in theVolcano The SGC insists on not normalizing them because the community and the authorities may usually have variations for several days this behavior has remained for several weeks in a very similar way does not mean that the volcanSeismicity remains very high compared to the one that had months ago commented John Makario Londoño Technical Director of Geoamenazas of the entity we recommend Nevado del Ruiz what is the red point that is seen from space once more reiterate instability that is to say the volcano presentIrregular conditions that merited to declare it at the level of orange activity the volcano is not normal has an activity that is too high with the days is accustomed to the ash it is not important not to get used to those situations that are not in normal terms pointed out the expert even year Londoño saidThat sometimes the volcano has shown that when it calms long after a high activity is when it has made eruptions that it clarified that it is not possibleWhy are they harmful so so much made the call to the community to follow the recommendations of the authorities such as the preventive evacuation The behavior of the volcano is very unstable, therefore it continues the probability that in days or weeks make an eruption greater than those thatHe has done in the last 10 years, the SGCer says to change from orange to yellow requireRuiz in orange activity The shocking snowy images of Ruiz Caldas asks to reduce high -risk area to recover jobs if there is an eruption of the Nevado Del Ruiz volcano can be consumed from the Nevado Llave Water of the Ruiz Rays and telephony failures are a sign of eruption</t>
+          <t>The eyes of the authorities and the inhabitants have been on the Nevado del Ruiz volcano, which has completed more than a month at the orange level of activity. Since then, there is the possibility of an eruption in a matter of days or weeksContinue reading Nevado del Volcano Ruiz Thermal anomalies reach higher values ​​what happensWith the passing of the weeks the reports of the Colombian Geological Service SGC account for the record of seismicity output of ash and sulfur and thermal anomalies detected by satellite platforms As several of these aspects tend to be recurrent in the volcano, the SGC insists on not normalizing them because the community and the authorities can get used to the fact that there are no variations for several days. This behavior has remained for several weeks in a very similar way. This does not mean that the volcano has returned to normal levels. On the contrary, the seismicity is still very high compared to what it was months ago, commented John Makario Londoño, technical director of geohazards of the entity. Irregular conditions that warranted declaring it at an orange level of activity The volcano is not normal It has a level of activity that is too high Over the days it gets used to ash coming out No It is important not to get used to those situations that are not normal, said the expert Even Londoño assured that sometimes the volcano has shown that when it calms down much after a high activity is when it has erupted That did clarify that it is not possible to predict its behavior nor estimate whether or not it will erupt Also read Nevado del Ruiz what are volcanic ash and why they are harmful Therefore he called on the community to follow the recommendations of the authorities such as preventive evacuation The behavior of the volcano is very unstable Therefore the probability continues that in days or weeks it will erupt more than what has done in the last 10 years says the SGCThe change from orange to yellow level requires a prudential time where trends and patterns can be observed that allow inferring the possible decrease in activity which can extend to several weeks A month of the Nevado del Volcán Ruiz in orange activity the shocking images Nevado del Ruiz Caldas asks to reduce high-risk area to recover jobs If there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed Nevado del Ruiz Volcano Lightning and telephone failures are signs of an eruption LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -500,12 +500,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Snowy volcano of the Ruiz Thermal anomalies reach greater values what happens</t>
+          <t>Nevado del Ruiz Volcano Thermal anomalies reach higher values ​​what happens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The director of Geoamenazas of the Colombian Geological Service John Makario Londoño reported that the activity of the Nevado del Ruiz volcano on May 7 and today May 8 continues with the same levels as the previous days, however, some thermal anomalies that have reached have been detectedhigher values than which have been detected in previous days..You may be interested called key to Nevado del Ruiz Volcano why you don't have to get used to more Londoño said that the activity that has occurred is similar to those presented in 2015 with the displacement of the lava dome that occurred at the bottom of the crankcaseHowever, he clarified that this does not mean that the crater erupts for the presence of these anomalies but is another parameter that one expects at an orange level..You may be interested in Nevado del Ruiz what are volcanic ashes and why they are harmful..The technical director indicates that for this reason it is important to continue with the permanent monitoring of the volcano and remain attentive to the recommendations of the local and national risk management authorities and the updates of the Colombian geological service..Londoño warns that there is quite misinformation about the situation of the Nevado del Ruiz that only aims to generate panic, so it is important to be attentive to the information of official entities Laura Camila Ramos.Writing Last news called Key on Nevado del Ruiz Volcano Why it is not necessary to get used to the Ruiz still unstable, earthquakes are reported inside the Nevar Volcano of the Ruiz Fall of ash in Manizales Villamaría and Neiravolcán Nevado del Ruiz continues to increase the seismic activity within the volcano</t>
+          <t>The director of Geothreats of the Colombian Geological Service John Makario Londoño reported that the activity of the Nevado del Ruiz volcano on May 7 and today May 8 continues at the same levels as the previous days, however some thermal anomalies have been detected that have reached values ​​greater than those that have been detected in previous days. . It may interest you Key call on Nevado del Ruiz volcano why you don't have to get used to it Londoño also stated that the activity that has occurred is similar to those that occurred in 2015 with the displacement of the lava dome that occurred at the bottom of the crater No However, he clarified that this does not mean that the crater erupts due to the presence of these anomalies, but that it is another parameter that one expects in an orange level of activity. . Nevado del Ruiz may be interested in what volcanic ash is and why it is harmful. . The technical director indicates that for this reason it is important to continue with the permanent monitoring of the volcano and to remain attentive to the recommendations of the local and national risk management authorities and to the updates of the Colombian Geological Service. . Londoño warns that there is a lot of misinformation about the situation of Nevado del Ruiz that only intends to generate panic. For this reason it is important to be attentive to the information from official entities Laura Camila Ramos. EDITORIAL LATEST NEWS Key call on Nevado del Ruiz volcano why you don't have to get used to itNevado del Ruiz remains unstable earthquakes are reported inside the volcanoNevado del Ruiz Volcano ash fall in Manizales Villamaría and NeiraNevado del Ruiz Volcano continues to increase seismic activity inside the volcano</t>
         </is>
       </c>
     </row>
@@ -518,12 +518,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Caldas asks to reduce high -risk area to recover jobs</t>
+          <t>Nevado del Ruiz Caldas asks to reduce high-risk area to recover jobs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>The new director of the National Unit for Disaster Risk Management UNGRD Olmedo López Martínez visited Caldas in the last hours there led a unified command post in which from the department they made a forceful request that reduce the area considered at greater risk inThe immediate vicinity of the Nevado del Ruiz volcano..Also read Nevado volcano of the Ruiz last bulletin reports earthquakes for fluidized movement its declaration of orange activity in which the area that is closed and where a preventive evacuation of the families corresponds to 15 kilometers to theRound of the Arenas Crater The application is that it be reduced to 10 and thus several commercial establishments can open their doors and not to continue in total loss as until now five kilometers of difference are fundamental for the economy of the department is not to relax is to continue working as we aredoing with the objective that thermal hotels and other restaurants and tourist spaces can have better economic and agro -industrial performance as well as the families of the sector that depend on offering goods and services for tourism explained the governor of Caldas Luis Carlos Velásquez..The president said that this request would not change the eviction invitation for the families in the area and reported that currently 20 families of 40 registered have evacuated and 21 minors are in family homes..In addition, Nevado Del Ruiz thermal anomalies reach greater values that the owners of the businesses in the area also assured that with the measure many economic possibilities would be recovered and that they want above credits or subsidies, we really wantReduction of the risk area would help almost 90 percent of closed businesses could open and we could continue working, said Sergio Salazar López General Manager of the Ruiz Hotel Hotel..In accordance with the provisions of the authorities to make this application viable, a technical concept is needed by the Colombian geological service who evaluates the risk taking into account how it could eventually be the fall of pyroclastic fires and the possible routes of the Lahares..In addition to this, from the department they reiterated the request of 8000 million pesos in economic resources and supplies to comply with the preventive enlistment before a possible eruption of the volcano, these include maintenance of evacuation roads provision for relief agencies and hospitals as well as reliefFinancial for merchants among other issues..More news Volcán of the Ruiz continues to increase the seismic activity within the volcano by its part of Ungrd Olmedo López Martínez promised to bring the requests before the President of the Republic Gustavo Petro to accelerate the processes especially those related to yellow machinery with whichThey can enable the surrounding evacuation routes the volcanic massif at the moment they go 20 kilometers of intervened tertiary roads..We recommend reading Nevado del Ruiz in 8 years have discovered 19 more volcanoes in Caldas lands..The commitment to review and speed up the request made by the Caldas governorate of two new yellow machinery combos so that we advance and we can soon announce that in the surroundings of the Nevado del Ruiz we have recovered 100 percent of roads so that the communitiesThey can get to evacuate quickly indicated López Martínez..The AGR director said they will continue to manage support kits for affected families and announced that the next ones will include elements for the care of the Usma Cardona company.For the time.Manizales</t>
+          <t>The new director of the National Disaster Risk Management Unit UNGRD Olmedo López Martínez visited Caldas in the last few hours. There he led a Unified Command Post in which the department made a forceful request to reduce the area considered to be at greatest risk in the vicinity of the Nevado del Ruiz volcano. . Also read Nevado del Ruiz Volcano Latest bulletin reports earthquakes due to fluid movementGiven its declaration of orange activity in which the area that has been closed since March 31 and from which a preventive evacuation of families was requested corresponds to 15 kilometers to the redonda del crater arenas The request is that it be reduced to 10 so that several commercial establishments can open their doors and not continue in total loss as up to now. Those five kilometers of difference are essential for the economy of the department. doing with the objective that the thermal hotels and other restaurants and tourist spaces can have better economic and agro-industrial performance as well as the families of the sector that depend on offering goods and services for tourism explained the governor of Caldas Luis Carlos Velásquez. . The president pointed out that this request would not change the eviction invitation for families in the area and reported that currently 20 families out of 40 registered have evacuated and 21 minors are in the homes of relatives. . In addition Nevado del Ruiz Volcano Thermal anomalies reach higher values ​​what happens The owners of the businesses in the area also assured that with the measure many economic possibilities would be recovered and that is what they want above credits or subsidies We really want them to let us work La Reducing the risk area would help almost 90 percent of the closed businesses to open and we could continue working, said Sergio Salazar López, general manager of the Termales del Ruiz Hotel. . According to what the authorities have stated, for this request to be viable, a technical concept is needed by the Colombian Geological Service, which assesses the risk taking into account what the fall of pyroclastic fires could eventually be like and the possible routes of lahars. . In addition to this, the department reiterated the request for 8000 million pesos in economic resources and supplies to comply with the preventive enlistment in the event of a possible eruption of the volcano. These include maintenance of evacuation routes, provision for relief agencies and hospitals, as well as relief financial for merchants among other topics. . More news Nevado del Ruiz Volcano continues to increase seismic activity inside the volcanoFor his part, the director of UNGRD Olmedo López Martínez promised to take the requests to the President of the Republic Gustavo Petro to speed up the processes, especially those related to yellow machinery with which They can enable the evacuation routes surrounding the volcanic massif. At the moment there are 20 kilometers of tertiary roads intervened. . We recommend reading Nevado del Ruiz in 8 years they have discovered 19 more volcanoes in Caldas. . The commitment to review and expedite the request made by the Government of Caldas for two new yellow machinery combos so that we can move forward and soon we can announce that in the surroundings of Nevado del Ruiz we have recovered 100 percent of the roads so that the communities they can get to evacuate quickly indicated López Martínez. . The director of the UNGR pointed out that they will continue to manage support kits for the affected families and announced that the next ones to arrive will include items for the care of companion animalsLAURA USMA CARDONA. For the time. MANIZALES</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano continues to increase seismic activity within the volcano</t>
+          <t>Nevado del Ruiz volcano continues to increase seismic activity inside the volcano</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The Colombian geological service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids within the volcano increased with respect to May 6 that had already increased with respect to the previous day..Read also Nevado del Ruiz in 8 years have discovered 19 more volcanoes in the lands of Caldas Earthquakes were located in the Arenas crater and in a dispersed way around it at a maximum distance of 6 km and at depths between 1 and 5 kilometers with respect to the activitySuperficial The maximum height of the gas column I observed ash was 1800 meters measured from the top of the volcano said the SGC..In addition, a snowy volcano of the Ruiz Last Bulletin reports earthquakes for movement of the SGC, the SGC said that from the satellite monitoring platforms several important thermal anomalies were observed at the bottom of the crater on the other hand, the variations in the wearling of sulfur dioxide and theWater vapor output from the crater to the atmosphere..More news from Volcán Nevado del Ruiz what is a thermal anomaly in a volcano the activity of the Nevado del Ruiz volcano remains very unstable it is possible that the levels of seismic activity as well as the levels of wear or output of ash decrease or are oscilatory in the senseIn increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels of activity concluded from the Entity Duván Álvarez.Nation editor the time you like to be informed enjoy the best without limits signed here</t>
+          <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids within the volcano increased compared to May 6, which had already increased compared to the previous day. . Read also Nevado del Ruiz in 8 years they have discovered 19 more volcanoes in Caldas lands The earthquakes were located in the Arenas crater and scattered around it at a maximum distance of 6 km and at depths between 1 and 5 kilometers Regarding the activity On the surface, the maximum height of the column of gases and/or ash observed was 1800 meters measured from the top of the volcano, said the SGC. . In addition, Nevado del Ruiz Volcano The latest bulletin reports earthquakes due to fluid movement. In addition, the SGC assured that several important thermal anomalies were observed from the satellite monitoring platforms at the bottom of the crater. On the other hand, variations in sulfur dioxide degassing and the escape of water vapor from the crater to the atmosphere. . More news from Nevado del Ruiz Volcano What is a thermal anomaly in a volcano? The activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or oscillate in the direction to increase some days and decrease others However, this does not imply that the volcano has returned to its normal levels of activity, they concluded from the entity DUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -554,12 +554,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz what are volcanic ashes and why they are harmful</t>
+          <t>Nevado del Ruiz, what are volcanic ash and why are they harmful?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The activity of the Nevado del Ruiz volcano already completes 38 days at the orange level and from the SGC Colombian Geological Service warn that there is a probability that in days or weeks make an eruption greater than those it has done in recent days 10 years..Read also UNREGRD recommends immediate evacuation of vicinity to the Crater of the Nevado del Ruizen the most recent report delivered by the entity indicates that the seismic activity associated with Roca fracturing inside the volcanic building increased on May 6 compared to the immediately previous day..This seismicity was mainly located in the Arenas Crater and in the Eastern and Southeast and Southeast of the volcano sectors at a maximum distance of 2 km from this and with depths between 2 and 6 km explains the SGC..Some of these earthquakes indicate the entity were related to the activity of the protuberance or lava mound located at the bottom of the crater..As for the ash emission, the SGC reports that its expulsion also continues and its column mixed with gases reached 800 meters high since the middle of the top of the volcano..Read also snowy volcano of the Ruiz why the emission of ash is a sign that worries about particles with a size less than 2 mm which can be of glass rocks or mineral crystals this composition can vary depending on the type of volcano and eruptionThe SGC..They originate because it is the consequence of processes inside a volcano in an eruptive process the pressure of the magma and its gases can fragment the rock inside the volcano into pieces These fragments come out at high speed through the crater add the entity the entity alsoSGC details that only volcanoes that are found in eruptive processes or with unstable behavior emit ash this is more common in explosive volcanoes and although not all are active they emit it can occur in those with orange yellow and red yellow activity level..Regarding whether healdispersion.Environmental writing likes to be informed enjoy the best without limits signed here</t>
+          <t>The activity of the Nevado del Ruiz volcano has already completed 38 days at the orange level and the Colombian Geological Service SGC warns that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. . Read also UNGRD recommends immediate evacuation of the vicinity of the Nevado del Ruiz craterIn the most recent report delivered by the entity, it is indicated that the seismic activity associated with rock fracturing inside the volcanic building increased on May 6 compared to the day before . . This seismicity was located mainly in the Arenas crater and in the northeastern eastern and southeastern sectors of the volcano at a maximum distance of 2 km from it and with depths between 2 and 6 km, explains the SGC. . Some of these earthquakes, the entity indicates, were related to the activity of the bulge dome or mound of lava located at the bottom of the crater. . Regarding the emission of ash, the SGC reports that its expulsion also continues and its column mixed with gases reached 800 meters in height from the middle of the top of the volcano. . Read also Nevado del Ruiz Volcano why the emission of ash is a sign of concern It is about particles with a size less than 2 mm which can be rocks, glass or mineral crystals This composition can vary depending on the type of volcano and eruption says the SGC. . They originate because it is the consequence of processes inside a volcano. In an eruptive process, the pressure of the magma and its gases can fragment the rock inside the volcano into pieces. These fragments come out at high speed through the crater, adds the entity. SGC details that only volcanoes that are in eruptive processes or with unstable behavior emit ash. This is more common in explosive-type volcanoes and although not all of them are active, they do emit ash, it can occur in those with a yellow, orange and red level of activity. . . Regarding whether it is harmful to health, the Geological Service explains that large amounts of ash in the atmosphere can affect the quality of water and air and generate harmful effects on the respiratory system. This depends on the proximity to the volcano and the direction of its dispersion . . ENVIRONMENTAL STAFF You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>In a new report, the Colombian Geological Service SGC indicated that instability in the Nevado del Ruiz volcano is maintained..We recommend reading Nevado del Ruiz what are volcanic ashes and why they are harmful..A little more than a month has passed since the emergency agencies decreed the orange alert state, which means that the volcano can erupt in the next few days or weeks, however, from the SGC, they affirmed that the earthquakes continue inside the crater of thevolcano and that are related to the fracturing of rocks in the mountain..It was also reported that the broadcast of ashes and particulate matter continued that could reach the municipalities of Murillo in Tolima and Manizales in Caldas..You might be interested in seismic activity in the crater of the Nevado del Ruíz volcano..Chambers and technical equipment installed around the snowy monitor their activity and send periodic reports to the analysis centers that closely follow the behavior of the volcano..Juan Pablo Contreras Ríos.Writing Latest Newsvolcán Nevado del Ruiz Fall ash in Manizales Villamaría and Neiravolcán Nevado del Ruiz why the emission of ash is a sign that worriesvolcán Nevado del Ruiz what is the red point that is seen from the spacelimits subscribe here</t>
+          <t>In a new report, the Colombian Geological Service SGC indicated that instability continues in the Nevado del Ruiz Volcano. . We recommend you read Nevado del Ruiz What are volcanic ash and why are they harmful? . A little over a month has passed since the emergency agencies declared the orange alert status, which means that the volcano may erupt in the coming days or weeks. However, the SGC affirmed that the earthquakes continue inside the crater of the volcano and that are related to the fracturing of rocks in the mountains. . Likewise, it was reported that the emission of ash and particulate matter continued, which could reach the municipalities of Murillo in Tolima and Manizales in Caldas. . It might interest you Seismic activity continues in the crater of the Nevado del Ruíz volcano. . Cameras and technical equipment installed around the Nevado monitor its activity and send periodic reports to the analysis centers that closely follow the behavior of the volcano. . JUAN PABLO CONTRERAS RIVERS. EDITORIAL LATEST NEWSNevado del Ruiz volcano ash fall in Manizales Villamaría and NeiraNevado del Ruiz volcano why ash emission is a worrying signNevado del Ruiz volcano what is the red dot seen from spaceYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seismic activity is maintained in the crater of the Nevado del Ruíz volcano</t>
+          <t>Seismic activity continues in the crater of the Nevado del Ruíz volcano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>For more than a month, the Nevado del Ruiz volcano has presented an instability that has forced the Colombian authorities to decree a state of orange alert to the possible eruption of the geological failure..We recommend reading this way a volcanic eruption and other volcanoes will affect the weather..Communities surrounding the vicinity of the mountain have already been evacuated by prevention and emergency services in Tolima Caldas and Risaralda are ready to address an eventual emergencies between the last report delivered by the Colombian geological service SGC the seismic activity has predominated inside the interior of thevolcano and fluid movement in the mountain ducts have been recorded..Likewise, ash pulsatile emissions continue and the wear of sulfur dioxide..You might be interested in Nevado del Ruiz ash fall in Manizales Villamaría and Neira..All these indicators ratify what from the SGC we have reiterated the activity of the Nevado del Ruiz volcano is still very unstable, it is possible that the seismic activity levels as well as the levels of the weardays and decrease others read in the last report delivered by the SGC..From that entity they also reiterate the need to evacuate the surrounding areas to the mountain since being at the orange level means the possibility of an eruption greater than those that have occurred in the last 10 years..Juan Pablo Contreras Ríos.Drafting Latest Newsvolcán Nevado del Ruiz Why the emission of ash is a sign that will worry two tremors near the snowy volcano of the Ruiz This was its magnitudevolcán Nevado del Ruiz what is a thermal anomaly in a volcano like to be informed enjoy the best content without limits subscribehere</t>
+          <t>For more than a month the Nevado del Ruiz volcano has presented an instability that has forced the Colombian authorities to decree a state of orange alert before the possible eruption of the geological fault. . We recommend that you read How a volcanic eruption would affect the climate and other facts about volcanoes. . Communities surrounding the vicinity of the mountain have already been evacuated for prevention purposes and the emergency services in Tolima Caldas and Risaralda are ready to deal with an eventual emergency. According to the latest report delivered by the Colombian Geological Service SGC, seismic activity has predominated inside the volcano and movement of fluids has been recorded in the conduits of the mountain. . Likewise, the pulsatile emissions of ash and the degassing of sulfur dioxide continue. . You might be interested in Nevado del Ruiz Volcano ash fall in Manizales Villamaría and Neira. . All these indicators ratify what the SGC has reiterated, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the sense of increasing by a few days and decrease others is read in the last report delivered by the SGC. . From that entity they also reiterate the need to evacuate the areas surrounding the mountain since being in orange level means the possibility of an eruption greater than those that have occurred in the last 10 years. . JUAN PABLO CONTRERAS RIVERS. EDITORIAL LATEST NEWS Nevado del Ruiz Volcano why ash emission is a worrying sign Two tremors reported near the Nevado del Ruiz volcano this was its magnitude Nevado del Ruiz Volcano what is a thermal anomaly in a volcano Do you like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -608,12 +608,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nevado Volcán del Ruiz Cajiz de Asiza in Manizales Villamaría and Neira</t>
+          <t>Nevado del Ruiz volcano ash fall in Manizales Villamaría and Neira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service reported in its most recent bulletin that on the morning of May 5 the volcanic activity of the Nevado del Ruiz has increased compared to the previous days..You may be interested report two tremors near the snowy volcano of the Ruiz This was its magnitude. The seismicity was located mainly in the eastern organiental sector of the volcano at distances between 2 and 5 km from the sandy craterIn the southeast sector the depth of all registered earthquakes ranged between 1 and 5 km assured the SGC by means of a statement..They also referred to the earthquake that was recorded in the morning that had a magnitude of 22 and that was located at approximately 4 km to the East of the crater, this earthquake was reported in the sector of the municipality of Casabianca in the department of Tolima..They also indicated that there was ash fall in the municipalities of Neira and Manizales in the department of Caldas in the same way the geological service received notified in this morning ash fallen in the municipality of Villamaría..The seismic activity related to the movement of fluids inside the volcanic ducts continues to predominate in the volcano yesterday 4 of May and so far this seismicity has presented a similar behavior in terms of number of earthquakes and seismic energy releasedRegarding the previous day, May 3, some of the seismic signals associated with this type of seismicity have been related to ash pulsatile emissions confirmed through the web cameras used for volcanic monitoring, the SGC said..You may be interested in Nevado del Ruiz why the emission of ash is a sign that worries the message of the geological service remains the same that warns a month ago the level of activity of the Nevado del Ruiz volcano will remain at the orange level for several weeks..Keep in mind the orange level indicates that there is a probability that in days or weeks make an eruption greater than those it has done in the last 10 years..It is possible that the levels of seismic activity as well as the levels of the degasification or exit of ash decrease or oscilatory in the sense of increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels of activity due to thethat it is recommended not to get used to these oscillatory changes of activity and think that it is a normal volcano activity also says the statement..The entity invites Colombians to remain calm to follow all the instructions of the National Unit for Disaster Risk Management UNRGR and local authorities in the same way suggests that citizens are attentive to the information provided by the Colombian Geological Service about evolutionof the state of Volcanlaura Camila Ramos.Writing Last News Volcán Nevado del Ruiz Today May 3 Slight increase in seismicvolcán energy snowwithout limits signed here</t>
+          <t>The Colombian Geological Service SGC reported in its most recent bulletin that on the morning of May 5 the volcanic activity of Nevado del Ruiz has increased compared to previous days. . It may interest you They report two tremors near the Nevado del Ruiz volcano, this was its magnitude The seismicity was located mainly in the eastern-northeastern sector of the volcano at distances between 2 and 5 km from the Arenas crater and in the crater itself and to a lesser extent there were earthquakes in the southeastern sector The depth of all the registered earthquakes oscillated between 1 and 5 km, assured the SGC through a statement. . They also referred to the earthquake that occurred in the morning that had a magnitude of 22 and was located approximately 4 km to the east-northeast of the crater. This earthquake was reported in the sector of La Cabaña, municipality of Casabianca in the department of Tolima. . They also indicated that ash fall occurred in the municipalities of Neira and Manizales in the department of Caldas. In the same way, the Geological Service received notification of ash fall in the municipality of Villamaría this morning. . The seismic activity related to the movement of fluids inside the volcanic conduits continues to predominate in the Ayer 4 de Mayo volcano and so far today this seismicity has presented a similar behavior in terms of the number of earthquakes and seismic energy released. compared to the previous day, May 3. Some of the seismic signals associated with this type of seismicity have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring, the SGC stated. . You may be interested in Nevado del Ruiz Volcano, why the emission of ash is a worrying sign The message from the Geological Survey continues to be the same as it warned a month ago that the level of activity of the Nevado del Ruiz volcano will remain orange for several weeks. . Keep in mind the orange level indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. . It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the sense of increasing on some days and decreasing on others. However, this does not imply that the volcano has returned to its normal levels of activity for the that it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcano, the statement also says. . The entity invites Colombians to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Similarly, it suggests that citizens be attentive to the information provided by the Colombian Geological Service on the evolution from the state of the volcanoLaura Camila Ramos. EDITORIAL LATEST NEWS Nevado del Ruiz volcano today May 3 slight increase in seismic energyNevado del Ruiz volcano what is the red dot that can be seen from spaceGovernment asks to evacuate but there is nowhere to go Nevado del Ruiz residentsYou like to be informed Enjoy the best unlimited content Subscribe here</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano why the emission of ash is a sign that worries</t>
+          <t>Nevado del Ruiz volcano, why the emission of ash is a worrying sign</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Although in recent weeks the ash column issued by the Snowy Volcano of the RUIZ has not grown by the scientists of the SGC Colombian service claim that since the mid -2021 a greater number of emissions with a height greater than 2000 meters measured from thetop of the volcano..In fact, some columns have passed the 3000 meters such as those registered on April 12, 2022, May 10, 2022 August 18, 2022 and May 2, 2023 ..Read also snowy of the Ruiz Thus the activity of the volcano is seen from the space that the column heights recorded for the volcano in recent days are within the range of its recent historical values a value such as May 2, 2023 of 20233000 meters does not mean that they are increasing detail from SGC..To evaluate their increase, experts explain the data more frequently in time and this parameter would also have to be analyzed together with others to investigate what it means within the context of the volcano activity at that time so much the SGC details that aIncrease in the number of ash emissions and an increase in column heights could indicate greater instability of the volcanic system the closeness of a magmatic body to the surface The contribution of new magmatic material The interaction between hydrothermal and magmatic systems among other phenomena..However, this parameter is integrally evaluated with others, for example, with the seismicity, the type and amount of volcanic gases to determine its cause and depending on this importance in determining a change in the level of activity say the scientists of the SGC in additionThey report two tremors near the Nevado del Ruiz volcano This was its magnitudeFrom weather conditions at the time of the emission, so when this parameter assess, weather variables must be taken into account..In general, magma contains gases when they escape from the magma, high temperatures are emitted and ascend in column to reach the surface, these hot gas columns are injected into the atmosphere and mixed with the environment ascending until the moment the temperatureFrom the column it is balanced with the atmospheric temperature there the ascent stops and the column is available to the weather conditions and wind speed prevailing in the area indicate the experts..Read also snowy from Ruiz we feel the volcano roar but we are not afraid..From this moment on, the explanation continues the winds control the volcanic pen and the transport of water vapor is produced Aerosols Aerosols by the monizontal transport monitoring phenomenon of a fluid..Depending on the characteristics of the volcanic pen and the force and speed of the wind, it can disperse the column hundreds of meters and even kilometers from its focus of emission between vertical ascent and subsequent dispersion of the columns is determined by variables typical of the volcano as the temperatureFrom the gas the output speed the composition of the column whether or not the size of the particles has and by atmospheric variables such as the atmospheric temperature the wind speed the pressure moisture to mention some the columns of gases and steamranging from small jets on the top to robust columns that are injected several kilometers on the top of the volcano and are characteristics of active volcanoes they point out..Keep reading Nevado del Ruiz what noises mean in the northern part of the volcano..Camilo Peña Castañeda.Subedory of today's life</t>
+          <t>Although the ash column emitted by the Nevado del Ruiz volcano has not grown in recent weeks, scientists from the Colombian Geological Service SGC affirm that since mid-2021 a greater number of emissions have been observed with heights greater than 2000 meters measured from the top of the volcano . In fact, some columns have passed 3000 meters, such as those registered on April 12, 2022, May 10, 2022, August 18, 2022, and May 2, 2023. . Also read Nevado del Ruiz, this is how the activity of the volcano is seen from space Starting from the fact that the column heights registered for the volcano in recent days are within the range of its recent historical values, a value like that of May 2, 2023 3000 meters does not mean that it is increasing in detail from SGC. . To evaluate its increase, the experts explain, the data should be studied more frequently over time and this parameter would also have to be analyzed together with others to find out what it means within the context of the volcano's activity at that time. Meanwhile, the SGC details that a An increase in the number of ash emissions and an increase in column heights could indicate greater instability of the volcanic system, the proximity of a magmatic body to the surface, the contribution of new magmatic material, the interaction between the hydrothermal and magmatic systems, among other phenomena. . However, this parameter is fully evaluated with others, for example, with seismicity, deformation, the type and quantity of volcanic gases to determine its cause and depending on this, it becomes important in determining a change in the level of activity, say the SGC scientists. They report two tremors near the Nevado del Ruiz volcano, this was its magnitude. They also affirm that the columns of gas and steam volcanic plumes are an expression on the surface of processes related to volcanic activity, however the height they reach does not only depend on the volcanic activity but also of the weather conditions at the time of issuance. Therefore, when assessing this parameter, weather variables must be taken into account. . In general, magma contains gases when these escape from the magma, high temperatures are emitted and rise in the form of a column until they reach the surface. These columns of hot gas are injected into the atmosphere and mix with the environment, rising until the temperature reaches the surface. of the column is balanced with the atmospheric temperature, there the ascent stops and the column is available to the meteorological conditions, the direction and speed of the prevailing wind in the area, indicate the experts. . Also read Nevado del Ruiz We feel the volcano roar but we are not afraid. . From this moment the explanation continues, the winds control the volcanic plume and the transport of gases, water vapor, ashes, aerosols occurs through the phenomenon of advection, horizontal transport of a fluid. . Depending on the characteristics of the volcanic plume and the strength and speed of the wind, this can disperse the column hundreds of meters and even kilometers from its source of emission. The vertical rise and subsequent dispersion of the columns is determined by variables specific to the volcano, such as temperature of the gas the exit velocity the composition of the column whether or not it has particulate matter the size of the particles and by atmospheric variables such as atmospheric temperature wind speed pressure humidity to name a few The columns of gases and steam have various shapes They range from small jets over the top to robust columns that are injected several kilometers above the top of the volcano and are characteristic of active volcanoes, they point out. . Continue reading Nevado del Ruiz what the noises mean in the northern part of the volcano. . CAMILO PEÑA CASTAÑEDA. ASSISTANT LIFE TODAY</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Two tremors report near the Nevado del Ruiz volcano this was its magnitude</t>
+          <t>Two tremors are reported near the Nevado del Ruiz volcano, this was its magnitude</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Two new earthquakes were recorded on May 4 according to the Colombian Geological Service The movements occurred near the snowy volcano of the Ruizlea also Nevado del Ruiz what is the red point that is seen from the space magnitude of the first was 22 and theEpicenter was 14 kilometers from the municipality of Murillo Tolima The depth this time was 5 kilometers this tremor was reported directly in the area of influence of the volcano that completes more than a month at the level of orange activity reading Nevado Volcán del Ruiz why the emission of ashIt is a sign that worries the second earthquake occurred on Thursday morning at 1113 to M in Armero Tolima several kilometers away from the volcanic complex that is not in the influence area magnitude was 26 and the epicenter was nine kilometersFrom the Tolimense municipality, the depth was less than 30 kilometers for the moment the authorities do not report an affectations or victims as they stop reading a month of the Nevado del Ruiz in Orange Activity The shocking imagesgoogle uses the Shakealert system a network of 1675 seismic sensors to detect tremors the applicationAnalyze sensor data to determine the location and magnitude of the earthquake..The Android earthquake alert system is a free service that detects earthquakes worldwide and can alert Android users before the tremor describes the company's website..The option operates for free and its main objective is to support authorities and people to prevent fatal victims in these natural events This is the step by step to activate earthquake notifications according to Google support..1 Open the phone configuration..2 Press security and emergency and then earthquake alerts..If you do not find security and emergency, press location and then advance later select alerts of map earthquakes if snowy volcano of the Ruiz erupYou can consume water from the Nevado of the Ruiz key is emitting sulfur dioxide what the last news means</t>
+          <t>Two new earthquakes were registered on May 4 According to the Colombian Geological Service, the movements occurred in the vicinity of the Nevado del Ruiz volcano. Also read Nevado del Ruiz Volcano, what is the red dot that can be seen from space? epicenter was 14 kilometers from the municipality of Murillo Tolima The depth this time was 5 kilometers This tremor was reported directly in the area of ​​influence of the volcano that has completed more than a month at an orange level of activityKeep reading Nevado del Ruiz Volcano why the ash emission It is a worrying sign The second earthquake occurred on Thursday morning around 1113 am in Armero Tolima, several kilometers away from the volcanic complex, yes, this area is not in the area of ​​influence The magnitude was 26 and the epicenter was nine kilometers from the municipality of Tolima The depth was less than 30 kilometers At the moment the authorities do not report damage or victimsDo not stop reading One month of the Nevado del Ruiz volcano in orange activity the shocking imagesGoogle uses the ShakeAlert system, a network of 1675 seismic sensors to detect tremors The application analyzes sensor data to determine the location and magnitude of the earthquake. . The Android Earthquake Alert System is a free service that detects earthquakes around the world and can alert Android users before the shaking starts, describes the company's website. . The option operates for free and its main objective is to support the authorities and people to prevent fatalities in these natural events. This is the step by step to activate earthquake notifications according to Google support. . 1 Open the phone settings. . 2 Touch Security and emergency and then Earthquake alerts. . If you do not find Security and emergency, press Location and then Advanced, then select Earthquake alerts Map if Nevado del Ruiz volcano erupts these places would be at risk An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifies If there is an eruption of Nevado del Ruiz volcano tap water can be consumed Nevado del Ruiz Volcano is emitting sulfur dioxide what does this mean LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>The SGC Colombian Geological Service delivered the activity bulletin in the Nevado del Ruiz volcano continues the predominance of seismic activity related to the movement of fluids inside the volcanic ducts and a slight increase in seismic energy compared to the previous day May 1..Continue reading Nevado del Ruiz what is the red point that is seen from space in the statement also mentions that seismic signals have been associated with ash pulsatile emissions that can be observed through the web cameras.Used for volcanic monitoring..For Tuesday, May 2, seismic activity associated with rock fracturing within the volcano showed a decrease in the number of registered earthquakes and in the relected seismic energy compared to the previous day..It also asks to evacuate but there is no where neighbors of the Nevado del Ruizel Colombian Geological Service pointed out that the levels of seismic activity as well as the levels of degasification or exit can be higher or minor compared to other days and make a call to caution..This does not imply that the volcano has returned to its normal levels of activity, so it is recommended notFrom the Nevado del Ruiz volcano in orange activity the shocking images that are the lahares This is what the SGC explains about these phenomena phenomena avendaño.Writing Last News like to be informed enjoy the best without limits signed here</t>
+          <t>The Colombian Geological Service SGC delivered the activity bulletin in the Nevado del Ruiz volcano The predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues and a slight increase in seismic energy compared to the previous day May 1 . . Continue reading Nevado del Ruiz Volcano, what is the red dot that can be seen from space? The statement also mentions that seismic signals have been associated with pulsatile ash emissions that can be observed through web cameras. used for volcanic monitoring. . On Tuesday, May 2, seismic activity associated with rock fracturing inside the volcano showed a decrease in the number of registered earthquakes and in the seismic energy released compared to the previous day. . In addition, the Government asks to evacuate but there is nowhere to go residents of Nevado del Ruiz The Colombian Geological Service pointed out that the levels of seismic activity as well as the levels of degassing or output may be higher or lower compared to other days and call for caution . . This does not imply that the volcano has returned to its normal levels of activity, so it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcanoVideo this is how Colombians skied in Nevado del Ruiz in the 50sOne month of the Nevado del Ruiz volcano in orange activity the shocking images What are lahars This is what the SGC explains about these phenomena Pamela Avendaño. LATEST NEWS EDITORYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano what is the red point that is seen from space</t>
+          <t>Nevado del Ruiz volcano what is the red dot seen from space</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>More than a month full the Nevado del Ruiz volcano at the level of orange activity which means that there is the probability that in days or weeks it will make an eruption greater than what has been done in the last decade in the middle of the monitoring the geological serviceColombian detected a red light or point in addition to the Nevado del Ruiz volcano in Orange Activity The shocking images The entity is still minute by minute the behavior of the volcanic complex thanks to numerous technological equipment, for example, they have cameras in different places around the volcano to observe it in timeReal outside the earth go to the satellitse the Sentinel 2 satellite of the European Space Agency captured the Nevado del Ruiz volcano on April 23 the image shows the cloudiness and in the middle of it a red point of the SGC that point is one of the anomaliesThermal that is currently at the bottom of the sandy crater and that evidences the heat flow from the interior of the volcano thermal anomaly is a variation of temperature in the surface even Luis Fernando Velasco previous director in charge of the National Unit for Disaster Risk ManagementHe had stated that temperatures could reach 700 csiga reading government asks to evacuPrecursors of an eruption pointed out the SGCantly the authorities registered a strange light that surprised the inhabitants of this zonale we recommended video like this Colombians in the Nevado del Ruiz in the 50s ash emissions are common in the snowy volcano of the Ruiz that carries close close10 years making minor rashes sometimes emit light due to the high temperature with which the particulate material and gases leave the volcano expressed the SGC a month of the Nevado del Ruiz volcano in orange activity the shocking images map if I volcano snowy of the Ruiz makesEruption These places would be at risk volcano snowy of the Ruiz is broadcasting sulfur dioxide this what the latest news means</t>
+          <t>The Nevado del Ruiz volcano has completed its orange activity level for more than a month, which means that there is a probability that in days or weeks it will erupt more than it has in the last decade. In the midst of monitoring, the Geological Service Colombiano detected a light or red dot In addition, one month of the Nevado del Ruiz volcano in orange activity, the shocking images The entity follows minute by minute the behavior of the volcanic complex thanks to numerous technological equipment For example, they have cameras in different places around the volcano to observe it in time real Outside the Earth they go to the satellitesThe Sentinel 2 satellite of the European Space Agency captured the Nevado del Ruiz volcano on April 23 The image shows the cloudiness and in the middle of it a red dotAccording to the SGC that point is one of the anomalies thermal anomalies that currently exist at the bottom of the Arenas crater and that evidence the flow of heat coming from the interior of the volcanoA thermal anomaly is a temperature variation on the surface Even Luis Fernando Velasco, former director in charge of the National Unit for Disaster Risk Management had stated that temperatures could reach 700 C Keep reading Government asks to evacuate but there is nowhere to go residents of Nevado del Ruiz Along with other indicators, thermal anomalies are a crucial parameter of volcano monitoring because they show the increase in volcanic activity and could be precursors of an eruption pointed out the SGCPreviously the authorities recorded a strange light that surprised the inhabitants of this areaWe recommend a video of how Colombians skied in the Nevado del Ruiz in the 50sAsh emissions are common in the Nevado del Ruiz volcano that is close for 10 years making minor eruptions Sometimes they emit light due to the high temperature with which the particulate material and gases come out of the volcano, stated the SGC A month of Nevado del Ruiz volcano in orange activity the shocking images Map if Nevado del Ruiz volcano ago eruption these places would be at risk Nevado del Ruiz Volcano is emitting sulfur dioxide what does this mean LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Government asks to evacuate but there are no where neighbors of the Nevado del Ruiz</t>
+          <t>Government asks to evacuate but there is nowhere to go residents of Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>The concern is notorious in the families of 19 Veredas del Tolima who live less than 15 kilometers from the Arenas craterTo the immediate evacuation of these high -risk areas due to possible rashes are high -risk areas are in the municipalities of Murillo Villahermosa Herveo and Casabianca in the north of Tolima where the lagoon and sulfur rivers descend..One of the most worried peasants is Enrique García President of the Community Action Board of the Cabaña a path 2 kilometers from the volcano crater where most of its inhabitants want to comply with the evacuation order but they have nowhere to go with their children and their children andanimals..The government asks us to get out of the sidewalks but in unison here we wonder where we are going if we have nowherePrepare empanadas and milky..On the sidewalk the cabin live about 15 families who for years have lived with the volcano and many daily repeat the same thing we get used to living with the volcano..Enrique García considers that the ideal is to evacuate towards the urban area of Murillo that is about 18 kilometers but the housing and sustenance issues for his family are concerned..In Murillo, house leases are between 400 and 500,000 pesos per month that must be paid in advance, he also has a woman with a thread in his belly and for 10 years surgery expects..From 13 families on their sidewalk only 4 go down at night to sleep with their children to the urban area in houses of family and friends The remaining families remain in their farms in the midst of danger..Families who do not go down to the urban area are because they have nowhere to spend the night and also fear that thieves vacate their farms and even the cattle, said Garcia..In the neighboring areas to the volcano, many do not believe in the promises of lease subsidies that the government made and claim that they are promises that in the end end up turned into lies..If all the peasants in a risk zone go down to the urban areas we were left with a cross -arms, no one would use us since we only know howA shark and lived to tell..Edward Ariza is also part of the hundreds of peasants who live with the Nevado del Ruiz volcano and he points out that his situation is critical because he lacks resources to live in an urban area..His family is made up of 7 people since he also sees his parents who supports and takes care of more than 5000 meters in that cold mountain..When we manage to sleep in the urban area that is occasionally we do it at friends in friends but it is difficult because there is no bed for so many people and we end up bothereding those who help us with very good will with the lodging said Arizale we recommend her mother the motherHe killed the painful crime of 2 children and his police dad in Bogotá..The truth is that families are not enough for money to pay for leases or buy food and to top it off this year inflation raised food prices transport and everything that is needed to live..Alberto Ávila Councilor of the municipality of Villahermosa that is about 20 kilometers in a straight line of the volcano points out that the national government must offer guarantees to the families that leave their paths..It is very easy to request evacuation but in practice it is a complicated process because where 1000 people from Tolima who live near the volcano go, he said..The councilor said that so far the government has not provided sufficient guarantees to families to get out of high -risk areas..He also pointed out that the markets that sometimes deliver the mayors are consumed by families in 3 or 4 days and then what Ibagué</t>
+          <t>The concern is notorious in the families of 19 villages of Tolima that live less than 15 kilometers from the Arenas crater of the Nevado del Ruiz Volcano and it is not for less since the previous Saturday the National Unit for Disaster Risk Management UNGRD requested to the immediate evacuation of these high risk areas due to a possible eruption. These high risk areas are in the municipalities of Murillo Villahermosa Herveo and Casabianca in northern Tolima where the Lagunilla and Azufrado rivers descend. . One of the most concerned peasants is Enrique García, president of the Community Action Board of La Cabaña, a village 2 kilometers from the volcano's crater where most of its inhabitants want to abide by the evacuation order but have nowhere to go with their children and animals. . The government asks us to get off the sidewalks but in unison here we wonder where we are going if we have nowhere to go, said the community leader who manages a farm with more than 100 cattle You may be interested in The Colombian who lost his hands in Iraq and today prepare empanadas and suckling pig. . Some 15 families live in the village of La Cabaña who have lived with the volcano for years and many of them repeat the same thing on a daily basis and we are used to living with the volcano. . Enrique García believes that the ideal is to evacuate to the urban area of ​​Murillo, which is about 18 kilometers away, but he is concerned about housing and livelihood issues for his family. . In Murillo, house rents are between 400 and 500,000 pesos a month, which must be paid in advance. . Of 13 families in their village, only 4 go down at night to sleep with their children in the urban area in the homes of relatives and friends. The remaining families remain on their farms in the midst of danger. . The families that do not go down to the urban area is because they have nowhere to spend the night and they are also afraid that thieves will vacate their farms and even take the cattle, García said. . In the areas surrounding the volcano, many do not believe in the promises of rent subsidies made by the government and affirm that they are promises that in the end end up turned into lies. . If all the peasants in the risk zone went down to the urban areas, we would remain idly by, no one would give us a job since we only know how to raise cattle and plant potatoes, assured the president of the Communal Board of the La Cabaña village. In addition, Martín Contreras, the man who fought against a shark and lived to tell the tale. . Edward Ariza is also part of the hundreds of peasants who live with the Nevado del Ruiz Volcano and he points out that their situation is critical because they lack the resources to live in an urban area. . His family is made up of 7 people since he also sees his parents whom he supports and cares for on that cold mountain at more than 5000 meters high. . When we manage to sleep in the urban area, which is from time to time, we do it snuggled up in friends' houses, but it is difficult because there are not beds for so many people and we end up bothering those who help us very willingly with the lodging, assured Ariza. He killed the painful crime of 2 children and their police father in Bogotá. . The truth is that families do not have enough money to pay rent or buy food and to make matters worse this year inflation raised the prices of food, transportation and everything that is needed to live. . Alberto Ávila, a councilor for the municipality of Villahermosa, which is about 20 kilometers in a straight line from the volcano, points out that the national government must offer guarantees to families who leave their villages. . It is very easy to request evacuation but in practice it is a complicated process because where are 1000 people from Tolima who live near the volcano going, he said. . The councilor affirmed that up to now the government has not provided sufficient guarantees to families to leave high-risk areas. . He also pointed out that the markets that are sometimes delivered by the mayors are consumed by families in 3 or 4 days and then what IBAGUÉ</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Snowy Ruiz Live volcano are presented ash pulsatile emissions</t>
+          <t>Nevado del Ruiz volcano LIVE shows pulsatile ash emissions</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The earthquakes thermal anomalies and the exit of an ash column of the Nevado del Ruiz volcano are some of the points that make the SGC Colombian Geological Service Maintain the level of activity in orange after a month of decreed that means that there is a probabilityor not that there is an eruption..Continue reading a month of the Nevado del Ruiz volcano in orange activity The shocking imageshay that being aware of the volcano there is a magma that is under pressing and in the surroundings of the volcano it can be presented seismicity that is typical of volcano expressed John Makario Londoño Technical Director of Geoamezasof the SGCADEMÁS VOLCÁN NEVADO DEL RUIZ WHAT IS THE RED POINT THAT SEE FROM THE SPACE HERE THE MINUTE OF MINUTE FROM MAY 2 LIKE TO BE INFORMED ENJOY THE BEST CONTENTS WITHOUT LIMITS SUBSCRIBE HERE</t>
+          <t>The earthquakes, thermal anomalies and the outflow of a column of ash from the Nevado del Ruiz volcano are some of the points that make the Colombian Geological Service SGC maintain the level of activity in orange after a month of decree that means that there is a probability whether or not there is an eruption. . Continue reading A month of the Nevado del Ruiz volcano in orange activity the shocking imagesYou have to be aware of the volcano There is a magma that is pressing below and in the surroundings of the volcano there can be seismicity This is typical of a volcano, said John Makario Londoño, technical director of geothreats of the SGCA In addition to the Nevado del Ruiz Volcano, what is the red dot that can be seen from space Follow here the minute by minute of this May 2 You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Video like that ski Colombians in the Nevado del Ruiz in the 50s</t>
+          <t>Video this is how Colombians skied in Nevado del Ruiz in the 50s</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>In the fifties it was possible skiing in the Andes mountain range due to the extensive layRuiz.At that time the volcano had a glacier area of 475 km² according to the Institute of Hydrology Meteorology and Environmental Studies..Continue reading Nevado del Ruiz Live volcano are presented pulsatile emissions of ashesgun signal Memory in the pre -Hispanic period the indigenous Quimbayas called the Cumanday mountain that means beautiful white as indicated by the fences that are in the Ruiz this place was special to payby indigenous communities..But this video fragment shows only part of what was the Nevado del Ruiz because in 1996 it was the place chosen to portray the contestants of the International Coffee Reign...In addition, a month of the Ruiz snowy volcano in orange activity The impressive images of March 30 decreed orange activity in the Nevado del Ruiz volcano This means that there is a probability that in days or weeks the Nevado del Ruiz volcanogreater eruption than those made in the last decade according to the Colombian Geological Service..In the last SGC bulletin it was specified that the movements of fluids continue inside the volcanic ducts and that some seismic signals have been associated with pulsatile emissions of Ashizavolcán Nevado of the Ruiz Army enables a radio station to alert the community only the 1 of the familiesFrom Caldas in a high -risk area, more than 50000 students would be affected by the Ruiz, they would be affected by possible eruption avendaño.Writing Last News like to be informed enjoy the best without limits signed here</t>
+          <t>In the fifties it was possible to ski in the Andes Mountains due to the extensive layer of ice that covered it. In the midst of the orange level of activity, Señal Memoria dusted off a video recorded in 1958 showing several people skiing in the Nevado del Ruiz. . At that time, the volcano had a glacial area of ​​475 km² according to the Institute of Hydrology, Meteorology and Environmental Studies. . Continue reading Nevado del Ruiz Volcano LIVE pulsating ash emissions are presentedAccording to Señal Memoria In the pre-Hispanic period, the Quimbaya indigenous people called the mountain Cumanday, which means beautiful white. As indicated by the billboards found in Ruiz, this place was special for making payments by indigenous communities. . But this video fragment shows only a part of what Nevado del Ruiz was, since in 1996 it was the place chosen to portray the contestants of the International Coffee Reign. . . In addition One month of the Nevado del Ruiz volcano in orange activity the shocking imagesSince last March 30, an orange level of activity was decreed in the Nevado del Ruiz volcano, this means that there is a probability that in days or weeks the Nevado del Ruiz volcano will make a eruption greater than those that have occurred in the last decade according to the Colombian Geological Service. . In the last bulletin of the SGC it was specified that the movements of fluids inside the volcanic conduits continue and that some seismic signals have been associated with pulsatile emissions of ashNevado del Ruiz Volcano Army activates a station to alert the communityBe careful only 1 of the families de Caldas in a high-risk area has evacuatedNevado del Ruiz more than 50,000 students would be affected by a possible eruptionPamela Avendaño. LATEST NEWS EDITORYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A month of the Nevado del Ruiz volcano in orange activity the shocking images</t>
+          <t>One month of the Nevado del Ruiz volcano in orange activity the shocking images</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -766,12 +766,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>What are the lahares this is what the SGC explains about these phenomena</t>
+          <t>What are lahars This is what the SGC explains about these phenomena</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Last Thursday, IDEAM issued orange alert in municipalities near the Nevado del Ruiz volcano and warned about the creation of lahares are usually relatively small and its discharge and volume depend on the intensity of the rain that is generated, the SGC Colombian Geological Service clarified..Regarding this, the Colombian geological service explained what these sediment phenomena are treated..Continue reading Nevado of the Ruiz live earthquakes to the interior increase by the lahares or mud flowIt makes an eruption of great magnitude technically they are called primary lahares, says the statement..According to the SGC, this phenomenon is generated by the rapid thaw of the snow of the glaciers that cover the volcano and only occurs when a volcano erupts as they progress through the rivers that are born in the volcano can increase its volume andbecome very destructive sweeping everything in its path..However, it is clarified that this is not a phenomenon that can occur in the orange alert that has been maintained since March 30..In addition, if there is an eruption of the Nevado del Ruiz volcano you can consume water from the key This is the phenomenon referred to by the IDEAM and in which orange and yellow alert is announced in some areas of influence of the Nevado del Ruiz in this regard the SGC clarifies..Secondary lahares occur when unleashed non -consolidated volcanic material deposited in certain places for previous eruptions are usually relatively small and their discharge and volume depends on the intensity of the rain that generates them this phenomenon of lahars will only be presented if the volcano makes an eruption of greatMagnitude It can be clarified that it is maintained at the level of orange activity and that it is not predictable of the Ruiz An eruption could activate other volcanoes the SGC explainsvolcán Nevado del Ruiz Rays and telephony failures are a sign of eruption may occur an earthquake if there is an eruption of the Nevado del RuizSGC CLARATE likes to be informed enjoy the best without limits signed here</t>
+          <t>Last Thursday, Ideam issued an orange alert in municipalities near the Nevado del Ruiz volcano and warned about the creation of lahars. They are usually relatively small and their discharge and volume depend on the intensity of the rain generated, the Colombian Geological Service SGC clarified. . Regarding this, the Colombian Geological Service explained what these sediment phenomena are about. . Continue reading Nevado del Ruiz Volcano LIVE earthquakes in the interior increase one near the craterThe lahars or mud flows commonly known as avalanches to which we have referred from our entity to describe one of the volcanic phenomena that could occur if the Nevado del Ruiz volcano makes a large-scale eruption technically they are called primary lahars, the statement says. . As explained by the SGC, this phenomenon is generated by the rapid melting of the snow from the glaciers that cover the volcano and only occurs when a volcano erupts. As they advance through the rivers that originate in the volcano, they can increase their volume and become very destructive destroying everything in its path. . However, it is clarified that this is not a phenomenon that can occur in the orange alert that has been in place since March 30. . In addition, if there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed. This is the phenomenon to which the Ideam refers and in which an orange and yellow alert is announced in some areas of influence of Nevado del Ruiz. In this regard, the SGC clarifies. . Secondary lahars occur when loose unconsolidated volcanic material deposited in certain places by previous eruptions are usually relatively small and their discharge and volume depend on the intensity of the rain that generates them. This lahar phenomenon will only occur if the volcano erupts with great force. magnitude It should be noted that it remains at the orange level of activity and that it is not predictableNevado del Ruiz an eruption could activate other volcanoes The SGC explainsNevado del Ruiz Volcano Lightning and telephone failures are signs of an eruptionAn earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifiesYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Snowy Ruiz Volcano Live thus evolves there is permanent monitoring</t>
+          <t>Nevado del Ruiz volcano LIVE this is how it evolves there is permanent monitoring</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The earthquakes thermal anomalies and the exit of an ash column of the Nevado del Ruiz volcano are some of the points that make the Colombian Geological Service SGC Maintain the level of activity in orange to close one month that means that there is a probabilityor not that there is an eruption in addition to the Nevado Del Ruiz Ideam volcano emits alerts due to the risk of the formation of Lahareshay to be aware of the volcano there is a magma that is under pressing and in the surroundings of the volcano it can be presented seismicity that is typical of volcano expressed John MakarioLondoño Technical Director of Geoamenazas of the SGCDE Its volcano interest of the Ruiz what phenomena could occur if it erupted</t>
+          <t>The earthquakes, the thermal anomalies and the outflow of a column of ash from the Nevado del Ruiz volcano are some of the points that make the Colombian Geological Service SGC maintain the level of activity in orange for about a month. This means that there is a probability or not that there is an eruption In addition Nevado del Ruiz Volcano Ideam issues alerts for the risk of lahar formation You have to be aware of the volcano There is a magma that is below pressing and in the surroundings of the volcano there can be seismicity That is typical of a volcano, expressed John Makario Londoño technical director of geothreats of the SGC Of your interest Nevado del Ruiz Volcano What phenomena could occur if it erupts Below follow the minute by minute of this April 28, 2023 LATEST NEWS EDITORIAL You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Snowy Ruiz Volcan</t>
+          <t>Nevado del Ruiz volcano LIVE earthquakes inside increase one near crater</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Around one month the level of orange activity in the Nevado del Ruiz volcanThe ash column that can observe inhabitants of nearby areas also snowy volcano of the Ruiz which phenomena could occur if erupciónel volcanJohn Makario Londoño Technical Director of Geoamenazas of the Colombian Geological Service</t>
+          <t>Nearly one month old, the level of orange activity in the Nevado del Ruiz volcano, which means the probability of an eruption greater than that of the last ten years, the energy of the earthquakes in recent days has increased as well as the length of the column of ash that residents of nearby areas can observeRead also Nevado del Ruiz Volcano What phenomena could occur if it eruptsThe volcano will not calm down from one day to the next Activity fluctuates and can decrease or increase at times We cannot let our guard down, he said John Makario Londoño technical director of geohazards of the Colombian Geological Service Follow the minute by minute of this April 27, 2023 LATEST NEWS EDITORIAL You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Ideam volcano issues alerts due to the risk of lahares formation</t>
+          <t>Nevado del Ruiz Ideam volcano issues alerts for risk of lahar formation</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Since March 30, the level of activity in orange was declared in the Nevado Del Ruiz volcanHydrology Meteorology and Environmental Studies Ideam issued orange and yellow alert for different municipalities of the area of influence due to the risks of formation of the very snowy volcano of the Ruiz The geological fault where the secondary magmalahars moves are contemplated as a phenomenon is volcanic material deposited in certain placesBy previous eruptions that can be removed by rain they are usually relatively small and its discharge and volume depend on the intensity by the rain that is generated by the SGCsigThe rural areas of Villahermosa Casabianca Lebanon LleidLower itself through the Gualí river basin so the rural areas of the municipalities of Herveo Casabianca Fresno Palocabildo.Phalan la Mariquita and Honda Tolima and the municipal headwaters of Mariquita and Honda Tolima are on orange alert the valleys of the Nereid Robrales Ríos Ríos Claro and Chinchiná Rivers could also have repercussion Los Lahares in Caldas Manizales Villamaría Chinchiná Palestina Neira and Anserma are on orange alert according toThe Ideamaunque in the Ideam Bulletin is in the forecast of sliding threat in the area of influence of the Nevado del Ruiz volcano alert in the municipality of Quindío is emitted by the rains not by the activity of the volcanic complex in Salento we are in low threat by theNevado Ideam has a red alert due to landslides, the rains have affected the tracks and the municipality has attended them in a timely manner said Juan Pablo Granados Coordinator of the Salento Risk Management if there is eruption of the Nevado del Ruiz volcano can consume water from the key in the middleEmergency for the Nevado del Ruiz the Ungrd would be without director Luis Alfredo Garavito has an eye cancer this is the revealing photo in jail Gustavo Bolívar confirms his intention to be a candidate for mayor of Bogotáredaccuación last news</t>
+          <t>Since the level of activity in the Nevado del Ruiz volcano was declared orange on March 30, the authorities have deployed actions to evacuate communities from the surrounding areas that could be affected in the event of a possible eruption. In this sense, the Institute of Hydrology Meteorology and Environmental Studies Ideam issued an orange and yellow alert for different municipalities in the area of ​​influence due to risks of lahar formation In addition, the Nevado del Ruiz Volcano, the geological fault through which the magma moves Secondary lahars are considered a phenomenon It is volcanic material deposited in certain places due to previous eruptions that can be removed by rain They are usually relatively small and their discharge and volume depend on the intensity of the rain that is generated clarifies the SGCKeep reading Nevado del Ruiz Volcano is emitting sulfur dioxide what does it meanIn Tolima attention is recommended to the rural areas of Villahermosa Casabianca Líbano Lérida Falan Armero Guayabal Murillo Venadillo and Ambalema due to the formation of lahars that could descend through the valleys of the Lagunilla Sabandija and Recio rivers We recommend there is a crack in the Nevado del Ruiz volcano This is the real reason This phenomenon could likewise go down the Gualí river basin So the rural areas of the municipalities of Herveo Casabianca Fresno Palocabildo. Falan Mariquita and Honda Tolima and the municipal seats of Mariquita and Honda Tolima are on orange alert In the valleys of the Nereidas Alfombrales streams, the Molinos Claro and Chinchiná rivers could also have an impact on lahars In Caldas Manizales Villamaría Chinchiná Palestina Neira and Anserma are on orange alert according to The IdeamAlthough in the Ideam bulletin it is in the forecast of a landslide threat in the area of ​​influence of the Nevado del Ruiz volcano, the alert in the municipality of Quindío is issued due to the rains, not due to the activity of the volcanic complexIn Salento we are in low threat due to the Nevado Ideam has a red alert for landslides, the rains have affected the roads and the municipality has dealt with them in a timely manner, said Juan Pablo Granados, risk management coordinator for Salento. If there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed In the middle emergency due to Nevado del Ruiz the UNGRD would be left without a director Luis Alfredo Garavito has eye cancer this is the revealing photo in jail Gustavo Bolívar confirms his intention to be a candidate for the mayoralty of Bogotá LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -838,12 +838,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>In the middle of emergency for the Nevado del Ruiz the Ungrd would be without director</t>
+          <t>In the midst of an emergency due to Nevado del Ruiz, the UNGRD would be left without a director</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The political tunez that generated the changes in seven ministries by President Gustavo Petro left a victim of which the National Unit of Risk and Disaster Management UNGRD is not certain..This on behalf of the appointment of Luis Fernando Velasco who until now was the director in charge of the entity as the new Minister of Interior taking advantage of his extensive experience in Congress with what he now has the mission of carrying out in the Legislative the reforms presented by the GovernmentSnowy Ruiz Volcano Live calls not to lower the guard because of this form the Ungrd would be without a head which attracts attention if it is taken into account that this entity is responsible for coordinating with the municipalities the different prevention actions againstA possible eruption of the Nevado del Ruizy volcano is that it is worth remembering that according to the latest report of the Colombian Geological System SGC the activity of the Nevado del Ruiz volcano remains very unstable both in its seismic activity and for its thermal anomalies so there continues having a highProbability of eruption..It should be remembered that Velasco was appointed as the UNGRD at the same time that he served as a senior presidential advisor for the regions in this way as he could know the time from the entity is not yet known if he will continue to be at the head of it while exercising as he exercisedMinister or if on the contrary it will be completely released from these functions..In addition, the reasons that explain the exits of the Petro government ministers..From risks and disasters, this institution would have been left without its second director in a little more than a month, it should be remembered that at the end of March the previous director Javier Pava Sánchez was left after his position days after the Attorney General's Office announcedthat would open an investigation against him for the floods of the Mojana in Sucre and Bolívarredacción Environment</t>
+          <t>The political upheaval that generated the changes in seven ministries by President Gustavo Petro left a victim of whom there is no certainty about his future the National Unit for Risk and Disaster Management UNGRD. . This is due to the appointment of Luis Fernando Velasco, who until now was the director in charge of the entity as the new Minister of the Interior, taking advantage of his extensive experience in Congress, with which he now has the mission of moving forward in the legislature the reforms presented by the Government. Read Nevado del Ruiz Volcano LIVE calls not to lower our guard over the activityIn this way, the UNGRD would be left without a head, which is striking if one takes into account that this entity is in charge of coordinating with the municipalities the different prevention actions against a possible eruption of the Nevado del Ruiz volcanoAnd it is worth remembering that according to the latest report from the Colombian Geological System SGC, the activity of the Nevado del Ruiz volcano continues to be very unstable both in terms of its seismic activity and its thermal anomalies, so there continues to be a high chance of eruption. . It should be remembered that Velasco was appointed as head of the UNGRD at the same time that he served as high presidential adviser for the regions. In this way, according to what EL TIEMPO was able to learn from the entity, it is still not known if he will continue to be in charge of it while serving as minister or if, on the contrary, he will get rid of said functions completely. . In addition, the reasons that explain the departures of the Petro government ministers. . If it moved away from Risks and Disasters, this institution would have been left without its second director in a little over a month. It should be remembered that at the end of March the previous director Javier Pava Sánchez was removed from his position days after the Office of the Attorney General of the Nation announced that would open an investigation against him for the floods of La Mojana in Sucre and BolívarENVIRONMENTAL EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano further increased seismic energy within the volcano</t>
+          <t>Nevado del Ruiz volcano further increased the seismic energy within the volcano</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>in</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz An eruption could activate other volcanoes the SGC explains</t>
+          <t>Nevado del Ruiz an eruption could activate other volcanoes The SGC explains</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Currently, the SGC Colombian Geological Service has three vulcanological observatories located in Pasto and Popayán Manizales from where specialists monitor the 21 active volcanoes known in the country located mainly in the central area..We recommend Nevado Volcán del Ruiz Ash Column reached 2 kilometers high..From Manizales, in addition to monitoring these days the activity of the Nevado del Ruiz volcano also follows the behavior of neighboring volcanoes such as Cerro Bravo Cerro Machín or the snowy of Santa Elizabethdebid to the proximity of these geological structures there is the popular belief that they canBeing connected and that the eruption of one of them can eventually lead to others are activated..However, since the SGC, experts have repeatedly explained that it is only one myth each volcanGeoamenazas of the Geological Service Inheritantly recognizes that in these sources that are in the depths of the Earth more than 30 kilometers it could be shared by many volcanoes but does not imply a relationship in its activity..Also snowy volcano of the Ruiz Rays and telephony failures are a sign of eruption in this case we are talking about the volcanic buildings that are maximum the six or seven most superficial kilometers of the cortex there the snowy of the Ruiz is a totally independent element of the Cerro Machín volcano ofso that this myth that one has that if the Nevado del Ruiz is activated by other volcanoes such as Tolima El Cerro Bravo and others is totally false emphasizes the expertIt remains at the level of activity in orange, which means that there is a probability of an eruption in the next few days or weeks in the last days at the exit of AshVolcano system is not completely closed if it were closed the gases inside would accumulate causing the probability of an eruption to increase exponentially..Keep reading there is a crack in the Nevado del Ruiz volcano This is the real reason authorities call not to lower the guard and follow the recommendations of the relief agencies especially in areas adjacent to the volcano where some inhabitants have not evacuated..Alejandra López Plazas.Drafting Science</t>
+          <t>Currently, the Colombian Geological Service SGC has three volcanological observatories located in Manizales, Pasto and Popayán, from where specialists monitor the 21 known active volcanoes in the country, located mainly in the central zone. . We recommend Nevado del Ruiz Volcano, an ash column reaching 2 kilometers high. . From Manizales, in addition to monitoring the activity of the Nevado del Ruiz volcano these days, the behavior of neighboring volcanoes such as Cerro Bravo, Cerro Machín or Nevado de Santa Isabel is also followed. Due to the proximity of these geological structures, there is a popular belief that they can be connected and that the eruption of one of them can eventually lead to the activation of others. . However, from the SGC, experts have repeatedly explained that it is just a myth. Each volcano has its own magmatic system, that is, they have their own reservoirs or chambers that are fed by much deeper sources, explained Jhon Makario Londoño, technical director of geothreats from the Geological Service, however, it recognizes that these sources, which are found in the depths of the Earth, more than 30 kilometers away, could be shared by many volcanoes, but it does not imply a relationship in their activity. . Also Nevado del Ruiz Volcano Lightning and telephone failures are signs of eruption. In this case we are talking about the volcanic edifices that are maximum the six or seven most superficial kilometers of the crust, there Nevado del Ruiz is a completely independent element of the Cerro Machín volcano. So that myth that one has that if Nevado del Ruiz is activated, other volcanoes such as Tolima, Cerro Bravo and others, is also totally false, emphasizes the expert. Despite this, the entity maintains an alert because the Nevado del Ruiz volcano The level of activity continues in orange, which means that there is a probability of an eruption in the coming days or weeks. In recent days, the emission of sulfur dioxide has been added to the output of ash. According to the Colombian Geological Service SG, this phenomenon indicates that the The volcano system is not completely closed. If it were closed, the gases inside it would accumulate, making the probability of an eruption increase exponentially. . Continue reading There is a crack in the Nevado del Ruiz volcano This is the real reason The authorities call not to let your guard down and follow the recommendations of relief agencies, especially in areas surrounding the volcano where some inhabitants have not evacuated. . ALEJANDRA LOPEZ PLAZAS. SCIENCE WRITING</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Snowy Volcano of the Ruiz live ash column reached 2 kilometers high</t>
+          <t>Nevado del Ruiz volcano LIVE ash column reached 2 kilometers high</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano completes more than 27 days with the level of activity in orangeFamilies who must leave only 102 have done it, an earthquake could also occur if there is an eruption of the Nevado del Ruiz SGC clarifies the activity of the volcanoes is unpredictable we cannot say that it will behave as it did in 1985 but it has the potential to make an eruptionIn that size, John Londoño said director of Geoamenazas of the SCGADEMAS If there is an eruption of the Nevado del Ruiz volcano you can consume water from the key as the guard should not be lowered the call of the authorities is to follow the recommendations of the relief agencies stay informed andAvoid falling into false content that can circulate on social networks as a myth about an earthquake say that if there is a large eruption there will be an earthquake that will destroy Manizales that is falseigue the minute by minute of this April 25, 2023 Last NewsInformed enjoy the best without limits signed here</t>
+          <t>The Nevado del Ruiz volcano has completed more than 27 days with the level of activity in orange, which means that there is a probability of an eruption in the coming days or weeks. The preventive evacuation in some areas has not been as expected, in fact, in Tolima de las mil families that must go out only 102 have done itRead also An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifiesThe activity of volcanoes is unpredictable, we cannot say that it will behave as it did in 1985 but it has the potential to erupt of that size, stated John Londoño, director of Geothreats of the SCGA. In addition, if there is an eruption of the Nevado del Ruiz volcano, tap water can be consumed, as one must not let down one's guard, the call from the authorities is to follow the recommendations of the relief agencies, stay informed and avoid falling into false content that can circulate on social networks such as a myth about an earthquake They say that if there is a large eruption there will be an earthquake that will destroy Manizales That is false informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano increased seismic activity within the SGC volcano</t>
+          <t>Nevado del Ruiz volcano increased seismic activity inside the SGC volcano</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids within the volcano increased with respect to April 23 and has been associated with several pulsatile ash emissions that wereconfirmed through the web cameras used for volcanic monitoring..Read also snowy volcano of the Ruiz live ash column reached 2 kilometers of Altola Maximum height of the gas column I observed ash was 2200 meters measured from the top of the volcano also continues the wear of sulfur dioxide to the atmosphere and the exitWater vapor in the volcano pointed from the SGC..More news from the Nevado Volcano of the Ruiz Geological Service explains what a possible eruption would be like this from the entity indicated that the activity of the Nevado del Ruiz volcano is still very unstable, it is possible that the levels of seismic activity as well as the levels of wear or levels ofash decrease or be oscillatory in the sense of increasing a few days and decreasing others, however, this does not imply that the volcano has returned to its normal levels of activity ensured..In addition there is a crack in the Nevado del Ruiz volcano, this is the true reason the SGC said that although it is not always possibleÁlvarez craterduván background.Nation editor the time you like to be informed enjoy the best without limits signed here</t>
+          <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that the seismic activity related to the movement of fluids inside the volcano increased with respect to April 23 and has been associated with several pulsatile ash emissions that were confirmed through the web cameras used for volcanic monitoring. . Also read Nevado del Ruiz Volcano LIVE ash column reached 2 kilometers high The maximum height of the column of gases and/or ash observed was 2200 meters measured from the top of the volcano In addition, the degassing of sulfur dioxide into the atmosphere and the outlet continues of water vapor in the volcano indicated from the SGC. . More news from the Nevado del Ruiz volcano Geological Service explains what a possible eruption would be like Due to this, the entity pointed out that the activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillatory in the sense of increasing on some days and decreasing on others. However, this does not imply that the volcano has returned to its normal levels of activity, they assured. . In addition, there is a crack in the Nevado del Ruiz volcano. This is the real reason. Finally, the SGC specified that although it is not always possible to detect thermal anomalies from satellite monitoring platforms, mainly due to bad weather, this does not mean that they are not still present in the bottom of the craterDUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -928,12 +928,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nevado volcano of the Ruiz Rays and telephony failures are a sign of eruption</t>
+          <t>Nevado del Ruiz Volcano Lightning and telephone failures are signs of eruption</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Evacuar and this is the overwhelming message of Luis Fernando Velasco Director in charge of the National Unit for Disaster Risk Management for communities that have not wanted to leave the area of influence of the Nevado del Ruiz volcano that continues on an alert orangeFrom an eruption Volcán Nevado del Ruiz live ash column reached 2 kilometers of Altoson five the prioritized municipalities for the evacuation Herveo Murillo Casabianca and Villahermosa in Tolima and Villamaría in Caldas, however, in some of the paths where the risk map evidence greater cautionThere are still residents who resist evacuating some of these paths, such as the cabin that is the community of the municipality of Murillo closest to the volcano, the peasants said that the cell phone signal is very badlyNevado del Ruiz SGC clarifies cell signal sometimes it serves and the calls enter or leave without problem but there are terrible days because we are left without a sign 4 and 6 hours expressed an inhabitant of this zonade other side on social networks arose a rumor that growing energyDel Crater supposedly brings interference to the satellite communications of television and internet cell phones also indicated that it was another sign of a possible erupical time consulted John Jairo Sánchez Geologist and professor of the National University who explained what is the truth about some phenomena that occur inA volcano in activity as is the case of the Nevado del Ruiztamo if there is a rash of the Nevado del Ruiz volcano can be consumed of the key to Sánchez in these areas when there are difficulties there are difficulties with the telephone signals when one rises to those regions that areRural areas The coverage in communications is complicated as you move away you are experiencing that the signal becomes weaker, it is a matter that it is a distant area that there is no greater coverage, the expert said that it is not successful to say that the phenomenon that the phenomenon that the phenomenon that the phenomenonThere are no signs is a symptom that the volcano will be erupt that I have risen many times in times when obviously there is no eruptive activity when the volcano is calm and the same the signs are deficient.Explain Sánchez asked to always be very attentive and attached to the information of the SGC as an official source of the area where the Nevado del Ruiz is located is usually prone to the rains that can cause thunderstorms in the surroundings but these are not necessarily associated with the volcano saidSanchez for the expert, these are phenomena associated with the time of time, however, according to Sánchez, the thunderstorms could occur when a volcanThe generation of electric discharges in other words is very common that when a volcano erupts a small local storm such as a microclimate with electric discharges because of that indicated snowy volcano of the Ruiz of a thousand people who must evacuThis only occurs when there is a volcanic eruption of large proportions in the case of the ash columns such as this Tuesday about two kilometers high does not have enough material to cause an electric shock, the SGC has reiterated that the Nevado del Ruiz is aVolcano that has been erupted for approximately 10 years but all the rashes that it has made in this period have been minor and its affectation has been limited to ashes fall in different places depending on the direction of the somouscaction last news</t>
+          <t>Evacuate now This is the forceful message from Luis Fernando Velasco, director in charge of the National Unit for Disaster Risk Management for the communities that have not wanted to leave the area of ​​influence of the Nevado del Ruiz volcano, which continues on orange alert due to the possibility of an eruptionLea Volcán Nevado del Ruiz LIVE column of ash reached 2 kilometers highThere are five municipalities prioritized for evacuation Herveo Murillo Casabianca and Villahermosa in Tolima and Villamaría in Caldas However, in some of the villages where the risk map shows greater caution there are still residents who refuse to evacuate. In some of these villages, such as La Cabaña, which is the community in the municipality of Murillo closest to the volcano, the peasants affirmed that the cell phone signal is very bad. In addition, an earthquake could occur if there is an eruption of the volcano. Nevado del Ruiz SGC clarifiesThe cell phone signal sometimes works and the calls come in or go out without a problem but there are terrible days because we were left without a signal for 4 and 6 hours, said an inhabitant of this areaOn the other hand, a rumor emerged on social networks that the increasing energy of the crater supposedly brings interference to satellite communications from cell phones, television, and the Internet. They also pointed out that it was another sign of a possible eruption. EL TIEMPO consulted John Jairo Sánchez, a geologist and professor at the National University, who explained the truth about some phenomena that occur in an active volcano as is the case of Nevado del RuizAlso If there is an eruption of the Nevado del Ruiz volcano, tap water can be consumedFor Sánchez in these areas, being so remote there are difficulties with telephone signals When one goes up to those regions that are In rural areas, communication coverage is complicated. As you get further away, you experience that the signal becomes weaker. there are no signs, it is a symptom that the volcano is going to erupt explainsIn fact Sánchez asked to always be very attentive and attached to the information from the SGC as an official sourceThe area where Nevado del Ruiz is located is generally prone to rain, a phenomenon that can cause electrical storms in the surroundings but these are not necessarily associated with the volcano, he said SánchezFor the expert, these are phenomena associated with the weather. However, according to Sánchez, electrical storms could occur when a volcano erupts with a large amount of ash ejected into the atmosphere for several kilometers. It is possible that this material generates processes that eventually end in the generation of electrical dischargesIn other words it is very common that when a volcano erupts a small local storm occurs as a microclimate with electrical discharges because of this, Lea Nevado del Ruiz Volcano pointed out of a thousand people who must evacuate only 102 have done soHowever, he indicated that This only happens when there is a large volcanic eruption. In the case of ash columns like the one on Tuesday, about two kilometers high, it does not have enough material to cause an electrical discharge. The SGC has reiterated that Nevado del Ruiz is a volcano that has been erupting for approximately 10 years but all the eruptions that it has made in this period have been minor and its affectation has been limited to ash fall in different places depending on the direction of the wind LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>If there is an eruption of the Nevado del Ruiz volcano, water from the key can be consumed</t>
+          <t>If there is an eruption of the Nevado del Ruiz volcano, you can drink tap water</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>With the passing of the days of the activity of the Nevado del Ruiz volcano, the thermal anomalies of the Arenas Crater and the earthquakes within the volcanic complex are only some signs of instability because the snowy volcano coverage of the snowy volcano of the snowy volcano of the snowyRuiz live ash column reached 2 kilometers of high medium from the monitoring work of the Colombia SGC Geological Service and the disaster risk management authorities circulate in false social networks false forecasts on what could happen in case of an eruptionAnd truthsphalso according to John Londoño Director of Geoamenazas of the SGC Some say that if there is a large eruption there will be an earthquake that will destroy Manizales that is false according to the authorities The earthquakes related to an eruption are presented inside the volcransiga reading Nevado NevadoDel Ruiz is emitting sulfur dioxide, what is meaning about the area in which it is located and if the National Unit for Disaster Risk Management is potable recommended to avoid consuming water from rivers or mountain ranges or close to the volcano since it may beContaminated in change in municipalities and cities, the water before leaving the key supplies a purification process that eliminates ash allowing its daily consumption mentions the governance of Caldasade More Volcán Nevado del Ruiz The earthquakes in the crater are what most worries Sgcfalso as explainedThe Mayor's Office of Manizales and the SGC The city would only be affected by the fall of ash in fact the official risk map indicates that the rock fragments could be transported by ballistic projection and deposited in the nearby parts of the volcano at distances less than 10 kilometersFrom the point of Issipationfalso the residents of the Nevado del Ruiz volcano are the Bravo Cerro Machín hill and the snowy of Santa Isabel but its activity is totally foreign in this case we are talking about the volcanic buildings that are maximum the six or seven most superficial kilometers of theThere the Nevado del Ruiz cortex is a totally independent element of the Cerro Machín volcano so that this myth that is had that if the Nevado del Ruiz is activated by other volcanoes such as the Tolima El Cerro Bravo and others is totally falseLondoño of the SGCAMPLIE Here Nevado del Ruiz An eruption could activate other volcanoes the SGC Explanasi there is an evacuation order in its area must go to the places indicated by the authorities. There is no evacuation order for areas that are several kilometers like the city of ManizalesThe authorities recommend being at home because ash could generate respiratory and eye effects as well as the roads could become dangerous and smooth ash drop in the national unit for disaster risk management advises to use N95 tapping and close all the windows doorsand openings where the material can enter if there are around the windows and doors some spaces cover with wet cloths can read why they report noise in Nevado del Ruiz volcano in the early morning SGC explicafalso the earthquakes and other aspects can vary but that does not mean that it goesTo make an imminent eruption, the authorities require so that monitoring to lower or raise the level of activity will continue to change level and return at the yellow level is required prudential time where trends and patterns can be observed that allow inferring the possible decrease in activityThe SGCLLOS says lava flows are generated in surrounding areas to the volcano crater the authorities as contemplates the risk map would reach rural areas of the upper part of the municipalities of Villamaría Herveo Casabianca Villahermosa Murillo Tolima and Santa Rosa de Cabal RisaraldaIt should be noted that everything depends on the magnitude that this phenomenon has a map if Nevado del Ruiz is erupSGC clarifies snowy volcano of the Ruiz of one thousand people who must evacuate only 102 have made it worrying warnings about the artificial intelligence of Yuval Noah Harariredaction last news</t>
+          <t>As the days go by, the activity of the Nevado del Ruiz volcano remains orange The outflow of ash, the thermal anomalies of the Arenas crater and the earthquakes within the volcanic complex are just some signs of instability as they tend to oscillateFollow the coverage of the Nevado del Ruiz Volcano Ruiz LIVE ash column reached 2 kilometers highAmid the monitoring work of the Colombian Geological Service SGC and the Disaster Risk Management authorities, false forecasts circulate on social networks about what could happen in the event of an eruptionHere are some myths and truthsFalse According to John Londoño director of Geothreats of the SGC some say that if there is a large eruption there will be an earthquake that will destroy Manizales That is false According to the authorities the earthquakes related to an eruption occur inside the volcanoKeep reading Nevado Volcano del Ruiz is emitting sulfur dioxide what does this meanDepends on the area you are in and if it is drinkable The National Unit for Disaster Risk Management recommends avoiding consuming water from rivers or mountain streams or near the volcano as it may be ContaminatedIn contrast, in municipalities and cities the water before leaving the tap supplies a purification process that eliminates the ash allowing its daily consumption, mentions the Government of CaldasIn addition to the Nevado del Ruiz Volcano The earthquakes in the crater are what most worries SGCFalse As explained the Mayor's Office of Manizales and the SGC the city would only be affected by ash fall In fact, the official risk map indicates that the rock fragments could be transported by ballistic projection and deposited in the nearby parts of the volcano at distances of less than 10 kilometers from the point of emissionFalse The neighbors of the Nevado del Ruiz volcano are the Cerro Bravo Cerro Machín and the Nevado de Santa Isabel but their activity is completely unrelatedIn this case we are talking about the volcanic edifices that are maximum the six or seven kilometers most superficial of the bark there the Nevado del Ruiz is a completely independent element of the Cerro Machín volcano so that this myth that if the Nevado del Ruiz is activated, other volcanoes such as Tolima, Cerro Bravo and others are also totally false, he pointed out. Londoño del SGC Expand here Nevado del Ruiz An eruption could activate other volcanoes The SGC explains If there is an evacuation order in your area, you must go to the places indicated by the authorities If there is no evacuation order for areas that are several kilometers away, such as the city of Manizales The authorities recommend being at home because the ash could cause respiratory and eye problems, as well as the roads could become dangerous and smooth. In the event of an ash fall, the National Unit for Disaster Risk Management advises using N95 masks and closing all windows, doors and openings through which the material can enter If there are some spaces around the windows and doors, cover them with damp clothsYou can read Why they report noises in the Nevado del Ruiz volcano at dawn SGC explainsFalse Earthquakes and other aspects may vary but that does not mean that it will to make an imminent eruption, the authorities specify So the monitoring to lower or raise the level of activity will continue To change the level and return to the yellow level, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity says the SGCThe lava flows are generated in areas surrounding the crater of the volcano, the authorities specify. As the risk map contemplates, they would reach rural areas in the upper part of the municipalities of Villamaría, Herveo, Casabianca, Villahermosa, Murillo, Tolima, and Santa Rosa de Cabal, Risaralda, yes. It should be noted that everything depends on the magnitude of this phenomenonEnlarge Map if Nevado del Ruiz volcano erupts these places would be at risk Luis Alfredo Garavito has eye cancer this is the revealing photo in prison An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifies Nevado del Ruiz Volcano of a thousand people who must evacuate only 102 have done so Worrying warnings about the artificial intelligence of Yuval Noah Harari LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>An earthquake could occur if there is aruption of the Nevado del Ruiz SGC clarifies</t>
+          <t>An earthquake could occur if there is an eruption of Nevado del Ruiz SGC clarifies</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano completes more than 26 days with the level of activity in orange, which means that there is a probability of an eruption in the next few days or weeks the earthquakes have oscillated in recent days, that is, they have increased or descended by what theAuthorities ratify their instability.If it were to make an eruption, said Luis Fernando Velasco Director in charge of the National Unit for Disaster Risk Management UngrdIn false content that can circulate on social networks of fact to clarify the information that some have alarmed the Colombian geological service, it referred to the possibility of the occurrence of an earthquake of a veryA large eruption is going to be an earthquake that will destroy Manizales that is false, John Londoño director of the SCG geoamenzas expressed in the institutional channel in that sense once again asked Colombians not to fall into chains that can be sent by messaging applications to beAttentive the SGC minute by minute monitors the activity with technological resources that it did not have in 1985 when the eruption buried Armerosiga reading snowy of the Ruiz The impressive aerial images of how the volcano is the activity of the volcanoes is unpredictable we can not say that it will behaveAs he did in 1985 but he has the potential to make an eruption of that size, he said Londoño to lower the level of activity to yellow are attentive to how the material magma that is at the bottom of the crater evolves and that seeks an exit generating earthquakes andRoca fracturing The change from orange to yellow level requires prudential time where trends and patterns can be observed that allow inferring the possible decrease in activity which can be extended to several weeksDespite a possible mayor eruption, he prepares Festival of the Nevado del Ruiz volcano why they report noises in Nevado del Ruiz Volcano in the early morning SGC explains Nevado del Ruiz is a critical patient, you could know when it would erup</t>
+          <t>The Nevado del Ruiz volcano has completed more than 26 days with the level of activity in orange, which means that there is a probability of an eruption in the coming days or weeks. The earthquakes have oscillated in the last few days, that is, they have increased or decreased, so the authorities ratify its instabilityFollow the coverage Nevado del Ruiz Volcano LIVE in emergency peasants complain about the signalIt is likely that it will explode in days or weeks No one can say when Another option is for it to calm down and not erupt We are acting almost like if there were to be an eruption, said Luis Fernando Velasco, director in charge of the National Unit for Disaster Risk Management, UNGRD, as one must not lower one's guard, the call from the authorities is to follow the recommendations of the relief agencies, stay informed and avoid falling in false content that can circulate through social networksIn fact, to clarify the information that has alarmed some, the Colombian Geological Service referred to the possibility of the occurrence of an earthquakeAlso Map if Nevado del Ruiz volcano erupts these places would be at riskThey say that if there is a large eruption is going to have an earthquake that will destroy Manizales That is false, expressed John Londoño director of Geothreats of the SCG on the Institutional ChannelIn this sense, once again he asked Colombians not to fall into chains that can be sent by messaging applications To be Pay attention minute by minute the SGC monitors the activity with technological resources that it did not have in 1985 when the eruption buried ArmeroKeep reading Nevado del Ruiz the impressive aerial images of how the volcano is The activity of volcanoes is unpredictable we cannot say that it will behave As it did in 1985, but it has the potential to make an eruption of that size, he specified, as Londoño explained, to lower the level of activity to yellow, they are attentive to how the material magma that is at the bottom of the crater evolves and that seeks an exit by generating earthquakes and rock fracturing The change from orange to yellow level requires a prudential time where trends and patterns can be observed that allow us to infer the possible decrease in activity which can last several weeks Nevado del Ruiz Volcano is emitting sulfur dioxide what does it mean Despite a possible eruption, the mayor prepares the Nevado del Ruiz volcano festival Why are they reporting noises in the Nevado del Ruiz volcano at dawn SGC explains Nevado del Ruiz is a critical patient It could be known when it would erupt</t>
         </is>
       </c>
     </row>
@@ -982,12 +982,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Peasants report bad communications service in the volcano zone</t>
+          <t>Peasants denounce poor communication service in the area of ​​the volcano</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>in</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nevado volcano of the Ruiz New earthquake of magnitude 17</t>
+          <t>Nevado del Ruiz volcano new earthquake of magnitude 17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano continues at the level of activity in orange, which means that there is a probability of an eruption in the next days or weeks of the Ruiz live in vivo in emergency peasants complain of the point of the last days at the exit of AshIt joins the emission of sulfur dioxide according to the Colombian geological service SG This phenomenon indicates that the volcano system is not completely closed if the gases inside would be closed, they would accumulate making the probability of an eruption increase exponentially not to read aearthquake with the eruption of the Nevado volcano of the Ruiz SGC clarifies authorities call not to lower the guard and follow the recommendations of the relief agencies especially in surrounding areas to the volcano where some inhabitants have not evacuated the minute by minute of this April 24of 2023 Last News</t>
+          <t>The Nevado del Ruiz volcano is still at an orange level of activity, which means that there is a probability of an eruption in the coming days or weeks. unites the emission of sulfur dioxide According to the Colombian Geological Service SG, this phenomenon indicates that the volcano system is not completely closed. If it were closed, the gases inside it would accumulate, making the probability of an eruption increase exponentially. earthquake with eruption of the Nevado del Ruiz Volcano SGC clarifies The authorities call not to let your guard down and follow the recommendations of the relief agencies, especially in areas surrounding the volcano where some inhabitants have not evacuated Follow the minute by minute of this April 24 2023 LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nevado volcano of the Ruiz of one thousand people who must evacuate only 102 have done so</t>
+          <t>Nevado del Ruiz volcano of a thousand people who must evacuate only 102 have done so</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Neither the permanent fall of ashes nor the high number of earthquakes and much less the fumaroles of more than 1500 meters high seemorange..Follow the snowy volcano coverage of Ruiz live in emergency peasants complain about the point102 have evacuated or 10 percent..We recommend reading the Nevado del Ruiz is not the only these are other volcanoes that threaten the Mallorcan Ejeandrea Director of Risk Management in TolimaRisk is because it is close to the volcano since in the case of an eruption there could be a fall of rocks assured the official..Villahermosa have evacuated 31 people of the Betulia Rocío Veredas Entrevalles and Poor Mina in Herveo the evacuation was made by 15 people as well as 2 of Casabianca and 54 in Murillo which is the municipality closest to that top..More news could occur an earthquake with the erupting of the Nevado Volcano of the Ruiz SGC clarifies..Families who evacuated preventively live with their relatives in urban areas but the head of the home goes up to the farm during the day to feed their animals and at night he returns with his family, said the director of Risk Management Families at the high risk of MurilloHerveo Villahermosa and Casabianca have their reasons not to leave because the majority although they are worried about what may happen feel calm since they lived the experience of the eruption of this volcano in 1985 when the avalanche of stone and snow stone went down the Lagunilla Riverand razed the population of Armero..Other peasants do not leave their farms for fear of crime that steals their belongings but what worries them most is to leave their cows and poultry that would lose weight and also fall into the hands of thieves..In addition, Nevado del Ruiz volcano continues thermal anomalies at the bottom of the craterché the authorities do so that the evacuation is effective andrea Mallorquin replies that in the areas surrounding the departmental government the departmental government has 200 people trained in this type of emergencies and their task is to dopresence in that territory to guide the community and that each person knows what should do if the volcano changes its activity..Regarding direct aid, for example, for the agriculture of the Tolima Government in conjunction with the National Unit for Disaster Risk Management UNOGRD has food stocks for animals but the economic incentive rotation for economic incentives for motorcycle fuel is also plannedand vehicles Fabio Arenas.For the time.Ibagué</t>
+          <t>Neither the permanent fall of ash nor the high number of earthquakes, much less the fumaroles over 1,500 meters high, seem to worry many of the peasant families in the department of Tolima who live in areas surrounding the Nevado del Ruiz volcano, which remains on alert. orange. . Follow the coverage Nevado del Ruiz Volcano LIVE in emergency peasants complain about the signal This was confirmed by the Risk Management office when corroborating that of 1000 people who must leave their homes and villages located within a radius of 15 kilometers from the volcano only 102 have evacuated or 10 percent. . We recommend reading Nevado del Ruiz is not the only one, these are other volcanoes that threaten the Axis. Andrea Mallorquín, director of Risk Management in Tolima, pointed out that the paths at high risk due to their proximity to the volcano belong to the municipalities of Murillo, Villahermosa, Herveo and Casabianca, El Mayor. The risk is from being close to the volcano, since in the event of an eruption there could be a rock fall, the official assured. . From Villahermosa, 31 people have evacuated from the villages of Betulia, Rocío Entrevalles and Mina Pobre. In Herveo, 15 people evacuated, as well as 2 from Casabianca and 54 in Murillo, which is the closest municipality to that peak. . More news An earthquake could occur with an eruption of the Nevado del Ruiz Volcano SGC clarifies. . The families that evacuated preventively live with their relatives in urban areas but the head of the household goes up to the farm during the day to feed his animals and at night he returns with his family, said the director of Risk Management Murillo's high-risk families Herveo Villahermosa and Casabianca have their reasons for not going out because most of them, although they are worried about what might happen, feel calm since they lived through the experience of the eruption of this volcano in 1985 when the avalanche of stone, mud and snow descended the Lagunilla river. and devastated the population of Armero. . Other peasants do not leave their farms for fear of crime that steals their belongings but what worries them most is leaving their cows and poultry alone and without food, which would lose weight and also fall into the hands of thieves. . In addition, Nevado del Ruiz Volcano continues with thermal anomalies at the bottom of the crater. What are the authorities doing to make the evacuation effective? Andrea Mallorquín responds that in the areas surrounding the volcano, the departmental government has 200 people trained in this type of emergency and their task is to presence in that territory to guide the community and that each person knows what to do if the volcano changes its activity. . Regarding direct aid, for example, for agriculture, the government of Tolima in conjunction with the National Unit for Disaster Risk Management, UNGRD has stocks of food for animals, but it is also planned to turn economic incentives for motorcycle fuel. and vehiclesFABIO ARENAS. For the time. IBAGUÉ</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano continue thermal anomalies at the bottom of the crater</t>
+          <t>Nevado del Ruiz volcano continues thermal anomalies at the bottom of the crater</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>in</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano There are thermal anomalies follows the orange alert</t>
+          <t>Nevado del Ruiz volcano there are thermal anomalies, the orange alert continues</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano is still very unstable after several weeks in a state of orange alert The sandy crater continues its degasification and there is water vapor exit by thermal anomalies..Read the Volcano Nevado of the Ruiz update LIVE There is instability and emits sulfretl Colombian geological service continues with continuous monitoring in the face of the possible eruption of the Nevado del Ruiz volcano that confirms the entity can be given in a few days or weeks it is important to not get used toAt this level and lower the guard you have to be attentive to the official communications and the information issued, said John Makario Londoño</t>
+          <t>The Nevado del Ruiz volcano is still very unstable after several weeks in an orange alert state, the Arenas crater continues with its degassing and there is a release of water vapor due to thermal anomalies. . Read the update LIVE Nevado del Ruiz Volcano there is instability and emits sulfur dioxide The Colombian Geological Service continues with continuous monitoring of the possible eruption of the Nevado del Ruiz volcano which, according to the entity, can occur in a few days or weeks It is important not to get used to it At this level and lower your guard, you have to be attentive to official communications and the information that is issued, said John Makario Londoño</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Snowy Ruiz volcano live there are gas emissions and anomalies in the crater</t>
+          <t>Nevado del Ruiz volcano LIVE there are gas emissions and anomalies in the crater</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano has been on orange alert since last March the Colombian Geological Service is constantly monitoring the ash fall The earthquakes and thermal anomalies within the crater..We re -ome reading Nevado del Ruiz volcano is emitting sulfur dioxide, which means of the latest reports of the National Unit for Disaster Risk Management Temperatures within the craterWe have to keep the orange alert for it we work in the region to evacuate people and react expressed the director of the UNGRD Luis Fernando Velascoredaccuación last news</t>
+          <t>The Nevado del Ruiz volcano has been on orange alert since last March, the Colombian Geological Service is constantly monitoring the fall of ash, earthquakes and thermal anomalies inside the crater. . We recommend that you read Nevado del Ruiz Volcano is emitting sulfur dioxide, what does this mean? We have to maintain the orange alert. That is why we are working in the region to evacuate people and react, said the director in charge of the UNGRD, Luis Fernando Velasco.</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano is emitting sulfur dioxide</t>
+          <t>Nevado del Ruiz volcano is emitting sulfur dioxide what does it mean</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano has had different changes since March 30 declared the level of activity in orange that could trigger in an eventual eruption among the aspects that are monitored there is one that according to the SGC Colombian geological service can be a good pointingSnowy Volcano of the Ruiz live will restrict via for tourists in Murillocon cut on April 21 there is pressure from the magma within the crater this earthquakes and fracturing of rock because the magma is looking for an exit also there are thermal anomalies in the crater sands that have been detected bysigns of more than 700 csiga Reading of the Ruiz The impressive aerial images of how the volcana isIf the gases were closed inside, they would accumulate, making the probability of an eruption increase exponentially, the calls of the authorities is to stay informed not to lower the guard and follow the recommendations of the relief agencies especially in areas adjacent to the volcano in the volcano inThose that some inhabitants have not evacuated the probability that it explodes in days or weeks no one can say when another option is to calm down and do not erupt we are acting almost as if it were to make an eruption said Luis Fernando Velasco director in charge ofThe National Unit for Disaster Risk Management Ungrad MapIn the last 10 years, the SGCer says to change from orange to yellow requires a prudential time where trends and patterns can be observed that allow inferring the possible decrease in activity which can be extended to several week despite possible mayor prepares the festival of the festival of theNevado Volcán del Ruiz Nevado del Ruiz is a critical patient you could know when it would erupt why they report noises in Nevado del Ruiz volcano in the early morning SGC explains Nevado Volcán del Ruiz could there be an eruption in days or weeks says the sgcredaction last news</t>
+          <t>The Nevado del Ruiz volcano has had different changes since the orange level of activity that could trigger an eventual eruption was declared on March 30. Among the aspects that are monitored there is one that, according to the Colombian Geological Service SGC, may be a good sign. Nevado del Ruiz volcano LIVE they will restrict the route for tourists in MurilloWith cutoff to April 21 there is magma pressure inside the crater This produces earthquakes and rock fracturing as the magma seeks a way out There are also thermal anomalies in the Arenas crater that have been detected by satellites A temperature of more than 700 C has even been recordedKeep reading Nevado del Ruiz the impressive aerial images of how the volcano isThe output of ash is joined by the emission of sulfur dioxide According to the SGC indicates that the volcano system is not completely closed If it were closed, the gases inside it would accumulate, making the probability of an eruption increase exponentially. Of course, the call of the authorities is to stay informed, not let your guard down and follow the recommendations of relief agencies, especially in areas surrounding the volcano in those that some inhabitants have not evacuatedIt is likely that it will explode in days or weeks No one can say when Another option is for it to calm down and not erupt We are acting almost as if it were going to erupt, said Luis Fernando Velasco, director in charge of the National Unit for Disaster Risk Management UNGRDA Also Map if the Nevado del Ruiz volcano erupts these places would be at risk The behavior of the volcano is very unstable Therefore the probability continues that in days or weeks it will erupt more than what it has done in the last 10 years says the SGCThe change from orange to yellow level requires a prudential time where trends and patterns can be observed that allow us to infer the possible decrease in activity which can extend to several weeks Despite a possible eruption the mayor prepares the Festival of the Nevado del Ruiz volcano Nevado del Ruiz is a critical patient It could be known when it would erupt Why are they reporting noises in the Nevado del Ruiz volcano at dawn SGC explains Nevado del Ruiz volcano could have an eruption in days or weeks says the SGCREDACTION LATEST NEWS</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz is not the only one, these are other volcanoes that threaten the axis</t>
+          <t>The Nevado del Ruiz is not the only one, these are other volcanoes that threaten the Axis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano has captured the country's attention in recent days.It could generate an emergency in the country..Read also snowy volcano of the Ruiz live crater temperature has reached 700 C</t>
+          <t>The Nevado del Ruiz volcano has captured the country's attention in recent days. Its orange level of activity, which presumes a possible eruption, has turned all eyes on it. However, this is not the only volcano in the area and therefore not the only one that could create an emergency in the country. . Also read Nevado del Ruiz Volcano LIVE crater temperature has reached 700 C</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Live volcano will restrict via for tourists in Murillo</t>
+          <t>Nevado del Ruiz volcano LIVE will restrict the route for tourists in Murillo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The Nevado del Ruiz volcano maintains in constant surveillance the authorities by the level of activity orange The earthquakes The fall of ash and thermal anomalies are just some of the aspects by which instability is ratified reading map if Nevado Nevado del Ruiz erupThese places would be at risky probability that it explodes in days or weeks no one can say when another option is that it is calm and not erupting we are acting almost as if it were to make an eruption said Luis Fernando Velasco Director in charge of the unitNational for Disaster Risk Management Ungría Más Nevado del Ruiz Video showed a strange red light in the volcano what passes here the minute by minute of the activity and the latest news of the Nevado Volcano del Ruiz this April 21 of the latest news last news</t>
+          <t>The Nevado del Ruiz volcano keeps the authorities in constant surveillance due to the level of orange activity Earthquakes, ash fall and thermal anomalies are just some of the aspects that ratify instabilityKeep reading Map if Nevado del Ruiz volcano erupts these places would be at risk There is a probability that it will explode in days or weeks No one can say when Another option is for it to calm down and not erupt We are acting almost as if it were going to erupt, said Luis Fernando Velasco, director in charge of the Unit National for Disaster Risk Management UNGRDA Also Nevado del Ruiz video showed a strange red light on the volcano what happened Follow here the minute by minute of the activity and the latest news from the Nevado del Ruiz volcano this April 21 LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Magma has risen between 2 and 3 kilometers under the crater</t>
+          <t>Nevado del Ruiz magma has risen between 2 and 3 kilometers below the crater</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The director of Geoamenazas of the Colombian Geological Service John Makario Londoño told Colombia today that the magma in the Nevado del Ruiz volcano should not be of procupation because this was deposited dento of some cameras of the volcano and that we have no other evidence that is going upto the crater..The official also referred to the light issued by the volcano and made a call to calm is not abnormal within the activity that the volcano has at this time expressed..Still reading Nevado del Ruiz volcano is emitting sulfur dioxide, what is meaningful in the same way Makario Londoño pointed that in the overflow of the Air Force it was also found that it is not on the surface of the crater so it calls for tranquility..He added that permanent monitoring is the one that gives the guidelines to make the prevention and alert decisions in the bulletins we say that the probability of eruption is but it may not also occur that will be said by time..In addition, Volcán Nevado del Ruiz live will restrict via for tourists in MurillThis evacuation has been given..He also informed that they are in dialogue with several families and work in a progam of animal welfare because many citizens are afraid to evacuThese are other volcanoes that threaten the rhiz government's ejevada install PMU to monitor the Avendaño volcano.Writing last news</t>
+          <t>The Director of Geothreats of the Colombian Geological Service John Makario Londoño told Colombia Hoy Radio that the magma in the Nevado del Ruiz volcano should not be of concern since it was deposited inside some chambers of the volcano and that we have no other evidence that it is rising up to the crater. . The official also referred to the light emitted by the volcano and called for calm. It is nothing abnormal within the activity that the volcano has at this time, he said. . Continue reading Nevado del Ruiz Volcano is emitting sulfur dioxide, what does this mean? In the same way, Makario Londoño pointed out that the Air Force overflight also found that it is not on the surface of the crater, which is why he calls for calm. . He added that permanent monitoring is what gives the guidelines for making prevention and alert decisions. In the bulletins we say that the probability of an eruption is there but it may not occur. Time will tell. . In addition, the Nevado del Ruiz Volcano LIVE will restrict the route for tourists in Murillo The Director of the National Unit for Disaster Risk Management Luis Fernando Velasco reported for the same outlet that there are total and partial evacuations of those who live very close to the volcano In 50 This evacuation has taken place. . He also reported that they are in dialogue with several families and work on an animal welfare program since many citizens are afraid of evacuating and that their livestock will be stolen. These are other volcanoes that threaten the AxisNevado del Ruiz Government installs PMU to monitor the Pamela Avendaño volcano. LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -1162,12 +1162,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Video showed a strange red light in the volcano what happened</t>
+          <t>Nevado del Ruiz video showed a strange red light on the volcano what happened</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>On the night of Wednesday, April 19, the Nevado del Ruiz volcano registered a strange light that surprised the inhabitants of this area cameras of the Colombian Geological Service registered the phenomenon..In turn, the entity explained what this phenomenon is about and why people should not feel fear of observing these changes in the volcano..Read Reading Nevado del Ruiz volcano is emitting sulfur dioxide. What significant ash emissions are common in the Nevado del Ruiz volcano that has been making minor eruptions sometimes emit light due to the high temperature with which the particulate material and particulate material andThe gases leave the volcano manifested the entity on Twitterademás Volcán Nevado del Ruiz live for ash they ask for a special capable to highlight that the orange alert level is maintained in the volcano and that an eruption cannot be predicted..The internal behavior of volcanoes is impossible to predict cannot be advanced because just as a rapid process can be accelerated and unleashed an eruption you can also stop to stop and do nothing more who says if it is going to accelerate or it will be still nobodyYou can with any instrument or technique say it assured John Londoño director of Geoamenazas of the SGC in talk with time the level of activity in orange in the Nevado volcano of the Ruiz circulate in social networks Videos and photos on their state some have captured the column of ashthat emerges from the crater and others have wondered why a rash or crack is seen in its upper part..Faced with this, the SGC explained is a wall corresponding to the limit of a crystallized lava body a feature that this volcano has been present for years and has no relation to its actual activity.What do the noise mean in the northern part of the Ruiz volcano is critical patient could know when erupamela Avendaño would do.Writing Last News like to be informed enjoy the best without limits signed here</t>
+          <t>During the night of Wednesday, April 19, the Nevado del Ruiz volcano recorded a strange light that surprised the inhabitants of this area. Cameras from the Colombian Geological Service recorded the phenomenon. . In turn, the entity explained what this phenomenon is about and why people should not feel afraid when observing these changes in the volcano. . Continue reading Nevado del Ruiz Volcano is emitting sulfur dioxide what does it mean Ash emissions are common in the Nevado del Ruiz volcano which has been making minor eruptions for about 10 years Sometimes they emit light due to the high temperature with which the particulate material and The gases come out of the volcano, the entity said on Twitter. In addition, Nevado del Ruiz Volcano LIVE due to the ash, they ask to enlist special masks. It should be noted that the orange alert level remains in the volcano and that an eruption cannot be predicted. . The internal behavior of volcanoes is impossible to predict It cannot be anticipated because just as you can speed up a rapid process and trigger an eruption, you can also be stunned, slow down and do nothing else. Who says if it will speed up or stay still? Nobody John Londoño, director of Geothreats of the SGC, can say it with no instrument or technique, in a chat with EL TIEMPOWith the level of activity in orange in the Nevado del Ruiz volcano, videos and photos about its status circulate on social networks Some have captured the column of ash that emerges from the crater and others have wondered why a tear or crack is visible in its upper part. . Faced with this, the SGC explained It is a wall corresponding to the limit of a body of crystallized lava, a feature that this volcano has had for years and that is not related to its current activity The faces of the inhabitants of the mouth of the Nevado del Ruiz volcanoNevado del Ruiz What the noises mean in the northern part of the volcanoNevado del Ruiz is a critical patient It could be known when Pamela Avendaño would erupt. LATEST NEWS EDITORYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Map If Volcán Nevado del Ruiz eruption these places would be at risk</t>
+          <t>Map if Nevado del Ruiz volcano erupts these places would be at risk</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Since March 30, the level of activity in orange was declared in the Nevado del Ruiz volcano, the authorities have deployed actions to evacuate the communities of the alleged areas that could be affected in the event of a possible erupcion reading Reading Nevado Del Ruiz VolcánSulfur dioxide is emitting what significant thermal anomalies detected and the ash column that emerges from it are just some elements with which the SGC Colombian service ratifies the instability of the internal behavior of the volcanoes is impossible to predict cannot be advanced becauseJust as a quick process can be accelerated and unleashed an eruption you can also spend stop and do nothing more who says if it is going to be accelerated or no one is going to be with any instrument or any technique.From the SGC in talk over time in addition Nevado Volcán del Ruiz live for ash they ask for special tapping to be informed in case of eruption This is the map of volcanic threat made by the SGC it should be noted that everything depends on the magnitude of this fallen phenomenonof pyroclastic pyroclasts pyroclastic density lava flows lahares avalanche of debris and directed lateral explosion are phenomena that are contemplated in an eventual emergency The risk map has the rural areas of the upper part of the municipalities of Villamaría Herveo Casabianca Villahermosa Murillo Tolima and SantaROSA RISARALDAEN Context Volcán Nevado del Ruiz The earthquakes in the crater are the mostIt takes time for nothing, said Londoño of the SGClahares or volcanic mud flow.Due to the river bed and all the material that it finds along its path and incorporates it when the flow goes the flow is growing and everything you find is carried by the londo for the time part of the volcano can travel several kilometers the forecasts of the SGC indicatewhich could descend through the valleys of the Nereid ravines and the Molinos River would later reach the Claro and Chinchiná rivers by advancing about 62 km until it flows into the Cauca River and possibly advancing a few kilometers downstream by both during their route would affect the rural areas of theMunicipalities of Manizales Villamaría Chinchiná Palestina Neira and Anserma Caldasen the North could reach the Magdalena River, emphasizing the rural areas of the municipalities of Herveo Casabianca Fresno Palocabildo Falan Mariquita y Honda and the municipal headwaters of Mariquita and Honda Tolimalea also Volcán Nevado del RuizStrengthening the possibility of an eruption by the East would go through the river basin of the river rivers and lagoon to the Lagunilla River could even pass through the old guns in this case the rural areas of the municipalities of Villahermosa Murillo Casabianca Lebanca Llebano Falán and Armero Guayabal would be affectedTolimaal Sur of the volcano would also arrive at the Magdalena River through the rural areas of the municipalities of Murillo Lebanon Lérida Venadillo and Ambalema Tolima in an approximate radius of 25 kilometers can fall ash and lapilli that is to say fragments of lava that throws the volcano plus rural areas of theMunicipalities of Villamaría Herveo Casabianca Villahermosa Murillo Tolima and Santa Rosa de Cabal Risaralda would also be harmed by these two aspects of the previous ones in a radius of 54 kilometers the ash and Lapilli are at medium to Dosquebradas Marseille Santa Rosa de Caballe Chinchiná Belacazar Palestine RisaraldaVillamaría Manizales Neira Marulanda Herveo Casabianca Villahermosa Murillo and Santa Isabelno stop reading Nevado del Ruiz is a critical patient could know when he would erup with a radius of 88 kilometers municipalities both in its urban and rural part of the departments of Caldas Tolima Risaralda Quindío Valle del Caucaand Cundinamarca among others could be affected by the material that is transported by the wind such as ash and lapilli despite possible mayor prepares festival of the Nevado del Ruiz volcano they found dead to Camila Sterling Colombian singer in Miami.What would a possible eruption be the details of the death of Colombians in Ukraine took them to find them the latest news</t>
+          <t>Since the level of activity in the Nevado del Ruiz volcano was declared orange on March 30, the authorities have taken actions to evacuate communities from the surrounding areas that could be affected in the event of a possible eruptionKeep reading Nevado del Ruiz Volcano it is emitting sulfur dioxide what does this meanThe earthquakes, the detected thermal anomalies and the column of ash that emerges from it are just some elements with which the Colombian Geological Service SGC ratifies the instabilityThe internal behavior of volcanoes is impossible to predict It cannot be anticipated because Just as you can speed up a rapid process and trigger an eruption, you can also be stunned to slow down and do nothing else. Who says if it is going to speed up or stay still? No one can say it with any instrument or technique, said John Londoño, director of Geothreats. from the SGC in a chat with EL TIEMPO In addition, Nevado del Ruiz Volcano LIVE due to the ash, they ask to enlist special masks. To be informed in the event of an eruption, this is the volcanic threat map made by the SGC It should be noted that everything depends on the magnitude of this phenomenon The falls of pyroclastic currents of pyroclastic density lava flows lahars debris avalanches and directed lateral explosion are phenomena that are contemplated in an eventual emergency The risk map has the rural areas of the upper part of the municipalities of Villamaría Herveo Casabianca Villahermosa Murillo Tolima and Santa Rosa de Cabal RisaraldaIn Context Nevado del Ruiz Volcano Earthquakes in the crater are what most worries SGCPyroclastic flows are the most deadly They can travel up to 100 200 or more kilometers per hour with a temperature of up to 500 degrees This sweeps away what is found No It gives time for nothing, expressed Londoño of the SGCLahares or volcanic mud flow, likewise they are considered another destructive phenomenon. through the bed of the river and all the material it finds along its way and incorporates it. When it goes downstream the flow grows and everything it finds takes it, Londoño said for EL TIEMPO As part of the volcano it can travel several kilometers The forecasts of the SGC indicate that could descend through the valleys of the Nereidas ravines and the Molinos river, later reaching the Claro and Chinchiná rivers, advancing about 62 km until it emptied into the Cauca river and possibly advancing a few kilometers downstream. Therefore, during its route it would affect the rural areas of the municipalities of Manizales Villamaría Chinchiná Palestina Neira and Anserma CaldasIn the north it could reach the Magdalena river affecting the rural areas of the municipalities of Herveo Casabianca Fresno Palocabildo Falan Mariquita and Honda and the municipal seats of Mariquita and Honda TolimaRead also Volcán Nevado del Ruiz is being strengthening the possibility of an eruption From the east it would go through the basin of the Azufrado and Lagunilla rivers to the Lagunilla river It could even pass through the old Armero In this case the rural areas of the municipalities of Villahermosa Murillo Casabianca Líbano Lérida Falán and Armero Guayabal would be affected TolimaTo the south of the volcano it would also reach the Magdalena river passing through the rural areas of the municipalities of Murillo Líbano Lérida Venadillo and Ambalema TolimaIn a radius of approximately 25 kilometers ash and lapilli can fall, that is, fragments of lava thrown by the volcano More rural areas than the The municipalities of Villamaría Herveo Casabianca Villahermosa Murillo Tolima and Santa Rosa de Cabal Risaralda would also be affected by these two aspects. In addition to the above, in a radius of 54 kilometers, ash and lapilli have a medium risk for Dosquebradas Marseille Santa Rosa de Cabal Chinchiná Belacazar Palestina Risaralda Villamaría Manizales Neira Marulanda Herveo Casabianca Villahermosa Murillo and Santa IsabelDo not stop reading Nevado del Ruiz is a critical patient It could be known when it would eruptIn a radius of 88 kilometers municipalities both in its urban and rural part of the departments of Caldas Tolima Risaralda Quindío Valle del Cauca and Cundinamarca, among others, could be affected by the material that is transported by the wind such as ash and lapilli Despite a possible eruption, the mayor prepares the Nevado del Ruiz volcano festival Camila Sterling, Colombian singer, was found dead in Miami, this is known Nevado del Ruiz Geological Service explains what a possible eruption would be like The details of the death of Colombians in Ukraine took time to find them</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz The impressive aerial images of how the volcano is</t>
+          <t>Nevado del Ruiz the impressive aerial images of how the volcano is</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>In the midst of the preventive monitoring of the authorities to the Nevado volcano of the Ruiz that has been with unstable activity for several weeks, the Colombian Air Force FAC performs constant aerial awards to maintain the alert and prioritize protocols in case of emergency..Do not stop reading the live coverage Volcano Nevado del Ruiz For ash they ask for special tapping enlisar. Survivals are made at more than 30000 feet high above the site with one of the surveillance and recognition aircraft SR560..You may interest Nevado del Ruiz volcano is emitting sulfur dioxide, which means this aircraft through the use of optronic systems allows the obtaining of real -time images of the behavior of this natural phenomenon indicated the FAC..With all this, the crews of the FAC remain on a maximum alert to attend this natural emergency..We suggest reading will eliminate crimes the thousands of cases of insult and slander in the prosecutor's prosecutor leaves a sinsabor that the president has not gone to the possession of UBPD..Its Air Force continues to work in an articulated manner with the competent authorities making permanent flying in the area in order to react in a timely manner before any eventuality, the entity JusticiaLtiempocom concluded.On Twitter Justiciatte like to be informed, enjoy the best without limits signed here</t>
+          <t>In the midst of the preventive monitoring carried out by the authorities of the Nevado del Ruiz volcano, which has been experiencing unstable activity for several weeks, the Colombian Air Force FAC carries out constant aerial reconnaissance to maintain alertness and prioritize protocols in case of emergency. . Be sure to read the LIVE coverage of the Nevado del Ruiz Volcano due to the ash, they ask to prepare a special mask. The overflights are carried out at more than 30,000 feet above the site with one of the SR560 type surveillance and reconnaissance aircraft. . It may interest you Nevado del Ruiz Volcano is emitting sulfur dioxide what does this meanThis aircraft through the use of optronic systems allows obtaining real-time images of the behavior of this natural phenomenon, indicated the FAC. . With all this, the FAC crews remain on high alert to deal with this natural emergency. . We suggest you read They will eliminate crimes The thousands of cases of libel and slander in the Prosecutor's Office More notes It leaves a disappointment that the President has not gone to the directing possession of UBPD. . Its Air Force continues to work in coordination with the competent authorities, carrying out permanent overflights in the area in order to react in a timely manner to any eventuality, the entity justiciaeltiempocom concluded. On Twitter JusticeETYou like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz Government install PMU to monitor the volcano</t>
+          <t>Nevado del Ruiz Government installs PMU to monitor the volcano</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tree more than 20 days after the snowy volcano of the Ruiz has an activity level in orange. The authorities have called for not generating panic but either tranquility since it must be prepared before a possible eruption we recommend map if Volcán Nevado del Ruiz erupThese places would be threatened Lupis Fernando Velasco Director in charge of the National Unit for Disaster Risk Management UNGRD said that permanent monitoring should be being monitored..In addition, Nevado del Ruiz Video shows a strange light of what it is..We cannot generate panic but either tranquility we have a volcano with orange activity level that means that it can erupt at any time or weeks we have to be alert to read, despite the possible eruption, mayor prepares festival of the Nevado volcano of the Ruizsiga hereMinute of the activity and the latest news from the Nevado del Ruiz volcano this April 20 Last News</t>
+          <t>More than 20 days after the Nevado del Ruiz volcano has an orange level of activity, the authorities have called not to generate panic but also not to calm down, since you must be prepared for a possible eruption. We recommend a Map if the Nevado del Ruiz volcano erupts these places would be threatenedLuis Fernando Velasco, director in charge of the National Unit for Disaster Risk Management, UNGRD assured that they must be permanently monitored. . Also Nevado del Ruiz Volcano video shows a strange light what it is. . We cannot generate panic but neither can we calm down We have a volcano with an orange level of activity, which means that it can erupt at any time for days or weeks We have to be alert sentenceDo not stop reading Despite a possible eruption, the mayor prepares the Nevado del Ruiz Volcano FestivalFollow the minute here minute of the activity and the latest news from the Nevado del Ruiz volcano this April 20 LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that continue the seismicity record associated with rock fracturing inside the volcanic building and the gase column reached 1800 meters high..Also read Nevado del Ruiz live volcano report ash emission with incandescencial seismic activity predominant in the snowy volcano of the Ruiz during yesterday was related to the movement of fluids inside the volcanic ducts and associated with gas emission and ash requiredIn the informed..There is also a crack in the Nevado del Ruiz volcano this is the real reason..As explained by the SGC, this seismicity presented an increase with respect to April 18, in addition to the registered earthquakes were lacked on the northeastern and southwestern flanks of the volcanThe atmosphere and water vapor in the volcano and the thermal anomalies record at the bottom of the crater added in the report..On the other hand on April 19, an overflow was carried out around the crater by the FAC which compiled information that is being analyzed and processed..More news from the Nevado Volcano of the Ruiz Nevado del Ruiz Geological Service explains what a possible eruption would be from the SGCof the activity that is why it is noted that the level of activity of the Nevado del Ruiz volcano will remain at Naranjaduván Álvarez level.Nation editor the time you like to be informed enjoy the best without limits signed here</t>
+          <t>The Colombian Geological Service reported in its most recent report on the activity of the Nevado del Ruiz volcano that they continue to record seismicity associated with rock fracturing inside the volcanic edifice and the column of gases reached 1800 meters in height. . Also read Nevado del Ruiz Volcano LIVE they report incandescent ash emissionThe predominant seismic activity in the Nevado del Ruiz volcano yesterday was related to the movement of fluids inside the volcanic conduits and associated with the emission of gases and ash, they specified in the report. . Also There is a crack in the Nevado del Ruiz volcano This is the real reason. . As explained by the SGC, this seismicity presented an increase with respect to April 18, in addition to the fact that the registered earthquakes were located on the northeastern and southwestern flanks of the volcano at an average distance from the crater of 1 and 3 kilometers respectively. the atmosphere and water vapor in the volcano and the record of thermal anomalies at the bottom of the crater added to the report. . On the other hand, on April 19, an overflight around the crater was carried out by the FAC, which collected information that is being analyzed and processed. . More news from the Nevado del Ruiz volcano Nevado del Ruiz Geological Service explains what a possible eruption would be likeFinally from the SGC they specified that to change level and return to yellow level a prudential time is required where trends and patterns can be observed that allow inferring the possible decrease of activity, which is why it is warned that the level of activity of the Nevado del Ruiz volcano will remain at the orange levelDUVÁN ÁLVAREZ. Editor of NACIÓN EL TIEMPO You like to be informed Enjoy the best content without limits Subscribe here</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1252,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Despite possible mayor eruption prepares the Nevado del Ruiz festival</t>
+          <t>Despite a possible eruption, the mayor prepares the Nevado del Ruiz Volcano Festival</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Citizens cannot suspend our lives, life must continue, Antonio José García Rodríguez mayor of Murillo Tolima Municipality that is close to the Nevado del Ruiz volcano also snowy volcano of the Ruiz live temperature increase is not good news in a medium news of an orange activity levelthat accounts for a possible eruption The Mayor's Office prepares an unusual celebration The Volcano Festival even this is one of the five municipalities prioritized by risk management against eventual emergency in dialogue over time Mayor García detailed what the event that arose to exalt to exaltTo the neighbor who have 16 kilometers in a straight line of the urban center, the Nevado volcano of the RuizhayVolcano without having to be in him, he said that very snowy volcano of the Ruiz The earthquakes in the crater are what most worries Sgchan designed to adapt in the main park of the municipality with telescopes and other devices to observe it all this accompanied by more academic and recreational cultural activities forTo summon our own and tourists want to bring experts and people who know volcanoes images and documentaries of volcanoes and at night to make a musical festival inhabitants of Murillo who were in the area near the Nevado del Ruiz had to evacuate before the increase in activity while they reportThe population of the risks The mayor is emphatic in saying that life must continue a number of situations that can be mitigated can be foreseen, you can act in front of the emergency but citizens cannot suspend our lives or suspend being happy or laugh or powerLivingHe has said that the level of activity in orange could be extended for months due to the instability of the volcano for Mayor García is not a problem.But that does not have a gravity that involves lives if it is handled correctly we would have to be bad so that just that day would erupt but if it happens we will have a contingency plan we do not want to run the risk but we also have to tell the community that inThe municipal seat The risk is under the sentenceAnimal capable of surviving a volcano activatedaction last news</t>
+          <t>Citizens cannot suspend our lives Life must continue, said Antonio José García Rodríguez, mayor of Murillo Tolima, a municipality that is close to the Nevado del Ruiz volcano. In addition, the Nevado del Ruiz volcano LIVE, an increase in temperature is not good news In the midst of an orange level of activity that reports a possible eruption the Mayor's Office prepares an unusual celebration the Volcano Festival Even this is one of the five prioritized municipalities for risk management in the event of an eventual emergencyIn dialogue with EL TIEMPO, Mayor García detailed what the event that arose to exalt will be like to the neighbor who has the Nevado del Ruiz volcano 16 kilometers in a straight line from the urban centerThere is a huge ignorance of what a volcano is and how it behaves The world is full of volcanoes What we want is to have a party to invite many people to meet a volcano without having to be in it said Nevado del Ruiz Volcano addition The earthquakes in the crater are what worries SGCH the most They have thought of adapting the main park of the municipality with telescopes and other devices to observe it All this accompanied by more cultural, academic and recreational activities for summon locals and tourists We want to bring experts and people who know volcanoes images and documentaries of volcanoes And at night have a musical festival The inhabitants of Murillo who were in the area near Nevado del Ruiz had to evacuate due to the increase in activity While they inform the population of risks the mayor is emphatic in saying that life must go on There are a number of situations that can be mitigated they can be foreseen we can act in the face of an emergency but we citizens cannot suspend our lives or suspend being happy or laughing or being able vivir said for this mediumDo not stop reading Why they report noises in the Nevado del Ruiz volcano at dawn SGC explainsThis is how things plan for the Volcano Festival to take place in the first days of June, especially with a full moonAlthough the Colombian Geological Service He has said that the level of activity in orange could extend for months due to the instability of the volcano. For Mayor García, it is not a problem. Where the municipality is located, we are out of high risk and medium low risk. but that does not have a seriousness that involves lives if it is handled correctly We would have to be in a bad state for it to erupt on that day but if it does happen we will have a contingency plan We do not want to take the risk but we also have to tell the community that in the municipal capital the risk is low, stated María Paula Munévar, this was how her last hours were before going to Javeriana There is a crack in the Nevado del Ruiz volcano This is the real reason Nevado del Ruiz Geological Service explains what a possible eruption would be like The volcanic snail animal capable of surviving an active volcano LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1270,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>There is a crack in the Nevado del Ruiz volcano this is the real reason</t>
+          <t>There is a crack in the Nevado del Ruiz volcano This is the real reason</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>With the level of activity in orange in the Nevado del Ruiz volcano, videos and photos about their status are circulated on social networks some have caught the ash column that emerges from the crater and others have wondered why a tangadura or crack is seen in its part in its partSuperior We recommend Nevado del Ruiz Volcán live temperature increase is not good news Infeatuutas have falsely attributed the discovery to army personnel who presence in the de factIn this regard, the SGC Colombian Geological Service clarified the Temano is any crack in the snow of the Nevado del Ruiz volcano is a wall corresponding to the limit of a crystallized lava body a trait that this volcano has been present for years and that has no relation toHis current activity sentenced the SGCNO cease to read Nevado del Ruiz is a critical patient, it could be known when he would erupt from the amount of snow or ice that is at the top that wall can be more or less visible the Bulletin of the SGC of April 19 givesCount that thermal anomalies continue at the bottom of the sandy craterPart of the lava dome that is in the background said John Makario Londoño Technical Director of Geoamenazas of the Colombianole Geological Service We recommend why they report noises in Nevado del Ruiz volcano in the early morning SGC explains in addition to the seismicity associated with the movement of fluids inside the ductsVolcanics rose in the last hours the entity reports a low level of energy of the earthquakes that occur to the southwest of the volcano about three kilometers from the craternGases reached 600 meters high, however, during the morning of April 18 there was an 1800 -meter ash column that caused the fall of the material in the municipality of Anzoátegui Department of Tolimapor these motives follows instability and the level of activity in activity is maintainedOrange cyclist killed alleged thief after reacting to theft of his bicycle in Bogotá The details of the death of Colombians in Ukraine took them to find them humorist of happy Saturdays revealed how he was on the verge of dying by divorce why John Poulos does not know what is femicide inCASE VALENTINA TRESPALACIOS REDACTION LAST NEWS</t>
+          <t>With the level of activity in orange in the Nevado del Ruiz volcano, videos and photos about its state are circulating on social networks. Some have captured the column of ash that emerges from the crater and others have wondered why a tear or crack is seen in its part superiorWe recommend Nevado del Ruiz Volcano LIVE The increase in temperature is not good newsEven Internet users have falsely attributed the finding to Army personnel who are present in the area In fact, during one of their monitors they photographed it but did not describe it as a crackDue to multiple theories In this regard, the Colombian Geological Service SGC clarified the issue. It is not a crack in the snow of the Nevado del Ruiz volcano. It is a wall corresponding to the limit of a body of crystallized lava, a feature that this volcano has had for years and that is not related to Its current activity was ruled by the SGCDo not stop reading Nevado del Ruiz is a critical patient It could be known when it would eruptDepending on the amount of snow or ice on the upper part, that wall may be more or less visibleThe SGC bulletin of April 19 gives note that the thermal anomalies continue at the bottom of the Arenas crater with values ​​very close to those observed in 2015 when the outflow process of a lava dome occurred. They indicate that there is very likely a new, extremely hot magma composition of different materials that is pushing part of the lava dome that is in the background, specified John Makario Londoño, technical director of Geothreats of the Colombian Geological Service. volcanoes rose in the last hours The entity reports a low level of energy from the earthquakes that occur to the southwest of the volcano, about three kilometers from the craterDo not stop reading Nevado del Ruiz Volcano The earthquakes in the crater are what most worries SGCThe column of gases reached 600 meters high, however, on the morning of April 18, there was an ash column of 1,800 meters that caused the fall of the material in the municipality of Anzoátegui, department of Tolima. For these reasons, instability continues and the level of activity remains at orange Cyclist killed an alleged thief after reacting to the theft of his bicycle in Bogotá The details of the death of Colombians in Ukraine took time to find them Comedian from Sábados Felices revealed how he was on the verge of dying for divorce Why John Poulos does not know what femicide is in Valentina Trespalacios case LATEST NEWS EDITORIAL</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz is critical patient could know when he would erupt</t>
+          <t>Nevado del Ruiz is a critical patient It could be known when it would erupt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>An immense ash column impressed and caught the attention of Colombians the phenomenon occurred on the morning of this Tuesday, April 18 and alarmed the alarms in the Nevado del Ruizle volcano we recommend reading the entire interview with the SGC Volcán Nevado del Ruiz theEarthquakes in the crater are what most worries the full volcano three weeks since when the SGC Colombian geological service decreed the orange alert before a possible eruption of the snowy of the Ruizincuso John Londoño director of Geoamenazas of the SGC manifested to the time that it plays to look at theDay by day how this critical patient who has the snowy volcano of the Ruizlea Volcán Nevado del Ruiz live is evolving report noise and fall of Asizael Expert explained that the Ruiz has an additional component on some occasions after being very disturbed very active it calms down butThen it has an eruption to be alert, the Ruiz is one of the most complicated volcanoes in the world to evaluate and monitor thisThe Ruiz may probably be on orange alert for several months. We cannot anticipate that the volcano will be still or not what we know is that the magma moved is manifesting with that seismicity with those higher temperatures in the crater and leaving much moreAshesgun Londoño there is no how to know the moment when the volcano erupted the internal behavior of the volcanoes is impossible to predict only we are seeing what they show in real time and based on what they have done we make a diagnosis and an interpretation of the expert expert explained thatYou cannot advance such a prognosis as well as a rapid process can be accelerated and unleashed an eruption you can also stop to stop and do nothing more who says if it is going to be accelerated or no one is going to be still with any instrument orNo technique saying it is clear that it is clear how the SGC has reiterated is that the activity of the Nevado del Ruiz volcano continues at the orange level which indicates that there is a greater probability that in days or weeks make an eruption greater than those it has done in recent10 years Writing Last News in Video Thus, the smoke column has evolved in the Nevado Volcano del Ruiznevado del Ruiz we felt the volcano roar but we are not afraid of the Ruiz and the other nine most dangerous active volcanoes in Latin America like to be informed enjoy the best content without limits without limits without limits without limits without limitsSubscribe here</t>
+          <t>An immense column of ash impressed and caught the attention of Colombians The phenomenon occurred on the morning of this Tuesday, April 18 and once again raised the alarms at the Nevado del Ruiz volcano. We recommend reading the entire interview with the SGC Nevado del Ruiz Volcano. earthquakes in the crater are what worries the most The volcano completes three weeks from when the Colombian Geological Service SGC decreed the orange alert before a possible eruption of Nevado del Ruiz Even John Londoño director of Geothreats of the SGC told EL TIEMPO that it is time to go looking in the Day by day, how is this critical patient that we have the Nevado del Ruiz volcano evolving? then it makes an eruption You have to be alert El Ruiz is one of the most complicated volcanoes in the world to evaluate and monitor, so say the scientists, he stated in EL TIEMPO Also Why do they report noises in the Nevado del Ruiz volcano at dawn SGC explains He added that Ruiz could probably be on orange alert for several months. We cannot anticipate that the volcano will be quiet or not. What we know is that the magma moved is manifesting with that seismicity with those higher temperatures in the crater and coming out much more ashAccording to Londoño, there is no way to know when the volcano would erupt. The internal behavior of volcanoes is impossible to predict. We only see what they show in real time and based on what they have done, we make a diagnosis and an interpretation. The expert explained that You cannot anticipate a forecast of this type Just as you can speed up a rapid process and trigger an eruption, you can also be stunned, slow down and do nothing else. Who says if it will speed up or stay still? no technique to say it pointed out What is clear, as the SGC has reiterated, is that the activity of the Nevado del Ruiz volcano continues at an orange level, which indicates that there is a greater probability that in days or weeks it will erupt more than it has in recent 10 years LATEST NEWS EDITORIn video, this is how the column of smoke has evolved in the Nevado del Ruiz volcanoNevado del Ruiz We feel the volcano roar but we are not afraidEl Ruiz and the other nine most dangerous active volcanoes in Latin AmericaYou like to be informed Enjoy the best content without limits subscribe here</t>
         </is>
       </c>
     </row>
